--- a/tweaks.xlsx
+++ b/tweaks.xlsx
@@ -464,7 +464,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,6 +551,16 @@
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -992,37 +1002,937 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
@@ -1031,129 +1941,42 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1169,199 +1992,13 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
@@ -1370,16 +2007,13 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
@@ -1403,55 +2037,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
@@ -1463,625 +2049,49 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
@@ -3783,7 +3793,7 @@
       <c r="J91"/>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="1">
+      <c r="A92" t="s" s="3">
         <v>121</v>
       </c>
       <c r="B92" t="s" s="451">

--- a/tweaks.xlsx
+++ b/tweaks.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
+    <sheet name="Tweaks" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="149">
   <si>
     <t>Name</t>
   </si>
@@ -62,7 +62,7 @@
     <t>Maybe</t>
   </si>
   <si>
-    <t>false</t>
+    <t>No</t>
   </si>
   <si>
     <t>Intend to unlock 60 fps capability in iPhone 4s and some old iPads only</t>
@@ -71,18 +71,15 @@
     <t>AFVideo</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>Animated Weather Enabler</t>
   </si>
   <si>
+    <t>AnywherePredict</t>
+  </si>
+  <si>
     <t>AppColorClose</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Auto HDR Enabler</t>
   </si>
   <si>
@@ -95,6 +92,12 @@
     <t>Better Pano Button</t>
   </si>
   <si>
+    <t>Bigmoji</t>
+  </si>
+  <si>
+    <t>N/Ai</t>
+  </si>
+  <si>
     <t>BlurryBadges</t>
   </si>
   <si>
@@ -104,12 +107,21 @@
     <t>BlurryContrast</t>
   </si>
   <si>
+    <t>BuddyLock</t>
+  </si>
+  <si>
     <t>Burst mode</t>
   </si>
   <si>
     <t>CCFlashLightLevel</t>
   </si>
   <si>
+    <t>CCScaleBT</t>
+  </si>
+  <si>
+    <t>&lt;9.3</t>
+  </si>
+  <si>
     <t>CamBlur7</t>
   </si>
   <si>
@@ -128,9 +140,6 @@
     <t>CamSwitchDown</t>
   </si>
   <si>
-    <t>N/Ai</t>
-  </si>
-  <si>
     <t>CamToggleBlur</t>
   </si>
   <si>
@@ -182,6 +191,9 @@
     <t>EmojiAttributes</t>
   </si>
   <si>
+    <t>EmojiFontManager</t>
+  </si>
+  <si>
     <t>EmojiLayout</t>
   </si>
   <si>
@@ -194,6 +206,9 @@
     <t>EmojiResources</t>
   </si>
   <si>
+    <t>&lt;9.2</t>
+  </si>
+  <si>
     <t>FB Unlimited Chat Heads</t>
   </si>
   <si>
@@ -227,6 +242,9 @@
     <t>FullNoPop</t>
   </si>
   <si>
+    <t>FullSafari (Fix)</t>
+  </si>
+  <si>
     <t>HDR Badge 7.0</t>
   </si>
   <si>
@@ -275,6 +293,9 @@
     <t>LockPredict</t>
   </si>
   <si>
+    <t>Minimal Camera (iOS 9)</t>
+  </si>
+  <si>
     <t>MoreDictation</t>
   </si>
   <si>
@@ -308,6 +329,9 @@
     <t>7.1</t>
   </si>
   <si>
+    <t>NoJail</t>
+  </si>
+  <si>
     <t>NoKeyPop</t>
   </si>
   <si>
@@ -362,6 +386,9 @@
     <t>RoundedTable</t>
   </si>
   <si>
+    <t>SMSGroupName</t>
+  </si>
+  <si>
     <t>SiriNoConfirm</t>
   </si>
   <si>
@@ -374,6 +401,9 @@
     <t>SmoothCursor</t>
   </si>
   <si>
+    <t>SmoothKB</t>
+  </si>
+  <si>
     <t>SmoothPop</t>
   </si>
   <si>
@@ -420,6 +450,9 @@
   </si>
   <si>
     <t>Yellow Flash 7.0</t>
+  </si>
+  <si>
+    <t>cfprefsd Fix</t>
   </si>
   <si>
     <t>exKeyboard</t>
@@ -574,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="517">
+  <cellXfs count="577">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
@@ -630,6 +663,21 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -675,6 +723,24 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -714,6 +780,21 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -756,6 +837,24 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1092,6 +1191,27 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1134,7 +1254,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
@@ -1272,6 +1392,18 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1497,6 +1629,21 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1620,6 +1767,24 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1860,75 +2025,108 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2095,6 +2293,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
@@ -2124,7 +2337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2132,6 +2345,7 @@
   <cols>
     <col min="1" max="1" width="27.984375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="64.10546875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="4.18359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2211,240 +2425,246 @@
         <v>14</v>
       </c>
       <c r="I4" t="s" s="15">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J4"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s" s="17">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s" s="18">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="19">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s" s="20">
+        <v>16</v>
+      </c>
+      <c r="J5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="B5" t="s" s="17">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s" s="18">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s" s="19">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s" s="20">
-        <v>16</v>
-      </c>
-      <c r="J5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="1">
+      <c r="B6" t="s" s="22">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s" s="23">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s" s="24">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s" s="25">
+        <v>14</v>
+      </c>
+      <c r="J6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1">
         <v>21</v>
       </c>
-      <c r="B6" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s" s="23">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s" s="24">
-        <v>19</v>
-      </c>
-      <c r="J6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s" s="26">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s" s="27">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s" s="28">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s" s="29">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s" s="30">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
+      <c r="B7" t="s" s="27">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="28">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s" s="29">
+        <v>14</v>
+      </c>
+      <c r="J7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s" s="31">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s" s="32">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s" s="33">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s" s="34">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s" s="35">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s" s="37">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s" s="38">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s" s="39">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s" s="40">
+        <v>16</v>
+      </c>
+      <c r="J9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="B8" t="s" s="32">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s" s="33">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s" s="34">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s" s="35">
-        <v>16</v>
-      </c>
-      <c r="J8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="1">
+      <c r="B10" t="s" s="42">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s" s="43">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s" s="44">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s" s="45">
         <v>27</v>
       </c>
-      <c r="B9" t="s" s="37">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s" s="38">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s" s="39">
-        <v>19</v>
-      </c>
-      <c r="J9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s" s="41">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s" s="42">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s" s="43">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s" s="44">
-        <v>19</v>
+      <c r="I10" t="s" s="46">
+        <v>14</v>
       </c>
       <c r="J10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s" s="46">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s" s="47">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s" s="48">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="B11" t="s" s="48">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s" s="49">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s" s="50">
+        <v>14</v>
       </c>
       <c r="J11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s" s="52">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s" s="53">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s" s="54">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s" s="55">
+        <v>14</v>
+      </c>
+      <c r="J12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
         <v>30</v>
       </c>
-      <c r="B12" t="s" s="50">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s" s="51">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s" s="52">
-        <v>22</v>
-      </c>
-      <c r="I12" t="s" s="53">
-        <v>19</v>
-      </c>
-      <c r="J12"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="B13" t="s" s="57">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s" s="58">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s" s="59">
+        <v>14</v>
+      </c>
+      <c r="J13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="B13" t="s" s="55">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s" s="56">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s" s="57">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s" s="58">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s" s="59">
-        <v>19</v>
-      </c>
-      <c r="J13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="1">
-        <v>32</v>
-      </c>
       <c r="B14" t="s" s="61">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s" s="62">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s" s="63">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="E14" t="s" s="62">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s" s="63">
+        <v>16</v>
       </c>
       <c r="I14" t="s" s="64">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s" s="66">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s" s="67">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s" s="68">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s" s="69">
+        <v>14</v>
+      </c>
+      <c r="J15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B15" t="s" s="66">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s" s="67">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s" s="68">
-        <v>22</v>
-      </c>
-      <c r="I15" t="s" s="69">
-        <v>19</v>
-      </c>
-      <c r="J15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="3">
-        <v>34</v>
-      </c>
       <c r="B16" t="s" s="71">
         <v>12</v>
       </c>
       <c r="E16" t="s" s="72">
         <v>14</v>
       </c>
-      <c r="H16" t="s" s="73">
-        <v>22</v>
-      </c>
-      <c r="I16" t="s" s="74">
-        <v>19</v>
+      <c r="G16" t="s" s="73">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s" s="74">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s" s="75">
+        <v>14</v>
       </c>
       <c r="J16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s" s="77">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s" s="78">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s" s="79">
         <v>35</v>
       </c>
-      <c r="B17" t="s" s="76">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s" s="77">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s" s="78">
-        <v>22</v>
-      </c>
-      <c r="I17" t="s" s="79">
-        <v>19</v>
+      <c r="H17" t="s" s="80">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s" s="81">
+        <v>14</v>
       </c>
       <c r="J17"/>
     </row>
@@ -2452,83 +2672,77 @@
       <c r="A18" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="B18" t="s" s="81">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s" s="82">
-        <v>14</v>
-      </c>
-      <c r="H18" t="s" s="83">
-        <v>15</v>
-      </c>
-      <c r="I18" t="s" s="84">
-        <v>19</v>
+      <c r="B18" t="s" s="83">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s" s="84">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s" s="85">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s" s="86">
+        <v>14</v>
       </c>
       <c r="J18"/>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="3">
+      <c r="A19" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="B19" t="s" s="86">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s" s="87">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s" s="88">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s" s="89">
+      <c r="B19" t="s" s="88">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s" s="89">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s" s="90">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s" s="91">
+        <v>14</v>
+      </c>
+      <c r="J19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="3">
         <v>38</v>
       </c>
-      <c r="I19" t="s" s="90">
-        <v>19</v>
-      </c>
-      <c r="J19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="1">
+      <c r="B20" t="s" s="93">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s" s="94">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s" s="95">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s" s="96">
+        <v>14</v>
+      </c>
+      <c r="J20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="3">
         <v>39</v>
       </c>
-      <c r="B20" t="s" s="92">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s" s="93">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s" s="94">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s" s="95">
-        <v>22</v>
-      </c>
-      <c r="I20" t="s" s="96">
-        <v>19</v>
-      </c>
-      <c r="J20"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="1">
+      <c r="B21" t="s" s="98">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s" s="99">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s" s="100">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s" s="101">
+        <v>14</v>
+      </c>
+      <c r="J21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="1">
         <v>40</v>
-      </c>
-      <c r="B21" t="s" s="98">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s" s="99">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s" s="100">
-        <v>22</v>
-      </c>
-      <c r="I21" t="s" s="101">
-        <v>19</v>
-      </c>
-      <c r="J21"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="B22" t="s" s="103">
         <v>13</v>
@@ -2536,627 +2750,642 @@
       <c r="C22" t="s" s="104">
         <v>14</v>
       </c>
-      <c r="E22" t="s" s="105">
-        <v>12</v>
+      <c r="H22" t="s" s="105">
+        <v>15</v>
       </c>
       <c r="I22" t="s" s="106">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J22"/>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="1">
+      <c r="A23" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s" s="108">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s" s="109">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s" s="110">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s" s="111">
+        <v>27</v>
+      </c>
+      <c r="I23" t="s" s="112">
+        <v>14</v>
+      </c>
+      <c r="J23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="B23" t="s" s="108">
+      <c r="B24" t="s" s="114">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s" s="115">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s" s="116">
         <v>13</v>
       </c>
-      <c r="C23" t="s" s="109">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s" s="110">
-        <v>22</v>
-      </c>
-      <c r="I23" t="s" s="111">
-        <v>19</v>
-      </c>
-      <c r="J23"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="H24" t="s" s="117">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s" s="118">
+        <v>14</v>
+      </c>
+      <c r="J24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="B24" t="s" s="113">
-        <v>14</v>
-      </c>
-      <c r="F24" t="s" s="114">
-        <v>12</v>
-      </c>
-      <c r="I24" t="s" s="115">
-        <v>19</v>
-      </c>
-      <c r="J24"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="B25" t="s" s="120">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s" s="121">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s" s="122">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s" s="123">
+        <v>14</v>
+      </c>
+      <c r="J25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="B25" t="s" s="117">
-        <v>12</v>
-      </c>
-      <c r="D25" t="s" s="118">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s" s="119">
-        <v>12</v>
-      </c>
-      <c r="I25" t="s" s="120">
-        <v>16</v>
-      </c>
-      <c r="J25"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="1">
+      <c r="B26" t="s" s="125">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s" s="126">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="127">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s" s="128">
+        <v>16</v>
+      </c>
+      <c r="J26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="B26" t="s" s="122">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s" s="123">
-        <v>14</v>
-      </c>
-      <c r="H26" t="s" s="124">
-        <v>22</v>
-      </c>
-      <c r="I26" t="s" s="125">
-        <v>19</v>
-      </c>
-      <c r="J26"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="B27" t="s" s="130">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s" s="131">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s" s="132">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s" s="133">
+        <v>14</v>
+      </c>
+      <c r="J27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="B27" t="s" s="127">
-        <v>12</v>
-      </c>
-      <c r="I27" t="s" s="128">
-        <v>19</v>
-      </c>
-      <c r="J27"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="1">
+      <c r="B28" t="s" s="135">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s" s="136">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s" s="137">
+        <v>14</v>
+      </c>
+      <c r="J28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="B28" t="s" s="130">
-        <v>14</v>
-      </c>
-      <c r="I28" t="s" s="131">
-        <v>19</v>
-      </c>
-      <c r="J28"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="1">
+      <c r="B29" t="s" s="139">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s" s="140">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s" s="141">
+        <v>12</v>
+      </c>
+      <c r="I29" t="s" s="142">
+        <v>16</v>
+      </c>
+      <c r="J29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="B29" t="s" s="133">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s" s="134">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s" s="135">
-        <v>22</v>
-      </c>
-      <c r="I29" t="s" s="136">
-        <v>19</v>
-      </c>
-      <c r="J29"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="3">
+      <c r="B30" t="s" s="144">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s" s="145">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s" s="146">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s" s="147">
+        <v>14</v>
+      </c>
+      <c r="J30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="B30" t="s" s="138">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s" s="139">
-        <v>22</v>
-      </c>
-      <c r="D30" t="s" s="140">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s" s="141">
-        <v>38</v>
-      </c>
-      <c r="I30" t="s" s="142">
-        <v>19</v>
-      </c>
-      <c r="J30"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="3">
+      <c r="B31" t="s" s="149">
+        <v>12</v>
+      </c>
+      <c r="I31" t="s" s="150">
+        <v>14</v>
+      </c>
+      <c r="J31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="B31" t="s" s="144">
-        <v>12</v>
-      </c>
-      <c r="F31" t="s" s="145">
+      <c r="B32" t="s" s="152">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s" s="153">
+        <v>14</v>
+      </c>
+      <c r="J32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="G31" t="s" s="146">
-        <v>38</v>
-      </c>
-      <c r="I31" t="s" s="147">
-        <v>19</v>
-      </c>
-      <c r="J31"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="3">
+      <c r="B33" t="s" s="155">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s" s="156">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s" s="157">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s" s="158">
+        <v>14</v>
+      </c>
+      <c r="J33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="3">
         <v>52</v>
       </c>
-      <c r="B32" t="s" s="149">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s" s="150">
-        <v>14</v>
-      </c>
-      <c r="H32" t="s" s="151">
-        <v>38</v>
-      </c>
-      <c r="I32" t="s" s="152">
-        <v>19</v>
-      </c>
-      <c r="J32"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B33" t="s" s="154">
-        <v>12</v>
-      </c>
-      <c r="C33" t="s" s="155">
-        <v>22</v>
-      </c>
-      <c r="D33" t="s" s="156">
-        <v>24</v>
-      </c>
-      <c r="E33" t="s" s="157">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s" s="158">
-        <v>12</v>
-      </c>
-      <c r="I33" t="s" s="159">
-        <v>19</v>
-      </c>
-      <c r="J33"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="B34" t="s" s="161">
-        <v>12</v>
-      </c>
-      <c r="F34" t="s" s="162">
-        <v>51</v>
+      <c r="B34" t="s" s="160">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s" s="161">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s" s="162">
+        <v>14</v>
       </c>
       <c r="G34" t="s" s="163">
-        <v>14</v>
-      </c>
-      <c r="H34" t="s" s="164">
-        <v>12</v>
-      </c>
-      <c r="I34" t="s" s="165">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="I34" t="s" s="164">
+        <v>14</v>
       </c>
       <c r="J34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="3">
-        <v>55</v>
-      </c>
-      <c r="B35" t="s" s="167">
-        <v>12</v>
-      </c>
-      <c r="C35" t="s" s="168">
-        <v>13</v>
-      </c>
-      <c r="D35" t="s" s="169">
-        <v>14</v>
-      </c>
-      <c r="H35" t="s" s="170">
-        <v>13</v>
-      </c>
-      <c r="I35" t="s" s="171">
-        <v>19</v>
+        <v>53</v>
+      </c>
+      <c r="B35" t="s" s="166">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s" s="167">
+        <v>54</v>
+      </c>
+      <c r="G35" t="s" s="168">
+        <v>27</v>
+      </c>
+      <c r="I35" t="s" s="169">
+        <v>14</v>
       </c>
       <c r="J35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s" s="171">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s" s="172">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s" s="173">
+        <v>27</v>
+      </c>
+      <c r="I36" t="s" s="174">
+        <v>14</v>
+      </c>
+      <c r="J36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="B36" t="s" s="173">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s" s="174">
-        <v>22</v>
-      </c>
-      <c r="D36" t="s" s="175">
-        <v>14</v>
-      </c>
-      <c r="F36" t="s" s="176">
+      <c r="B37" t="s" s="176">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s" s="177">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s" s="178">
+        <v>23</v>
+      </c>
+      <c r="E37" t="s" s="179">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s" s="180">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s" s="181">
+        <v>14</v>
+      </c>
+      <c r="J37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="G36" t="s" s="177">
-        <v>38</v>
-      </c>
-      <c r="I36" t="s" s="178">
-        <v>19</v>
-      </c>
-      <c r="J36"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="3">
+      <c r="B38" t="s" s="183">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s" s="184">
+        <v>54</v>
+      </c>
+      <c r="G38" t="s" s="185">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s" s="186">
+        <v>12</v>
+      </c>
+      <c r="I38" t="s" s="187">
+        <v>14</v>
+      </c>
+      <c r="J38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="3">
         <v>58</v>
       </c>
-      <c r="B37" t="s" s="180">
-        <v>12</v>
-      </c>
-      <c r="C37" t="s" s="181">
-        <v>22</v>
-      </c>
-      <c r="D37" t="s" s="182">
-        <v>14</v>
-      </c>
-      <c r="H37" t="s" s="183">
-        <v>38</v>
-      </c>
-      <c r="I37" t="s" s="184">
-        <v>19</v>
-      </c>
-      <c r="J37"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="3">
+      <c r="B39" t="s" s="189">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s" s="190">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s" s="191">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s" s="192">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s" s="193">
+        <v>14</v>
+      </c>
+      <c r="J39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="3">
         <v>59</v>
       </c>
-      <c r="B38" t="s" s="186">
-        <v>12</v>
-      </c>
-      <c r="C38" t="s" s="187">
-        <v>22</v>
-      </c>
-      <c r="D38" t="s" s="188">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s" s="189">
-        <v>12</v>
-      </c>
-      <c r="H38" t="s" s="190">
-        <v>38</v>
-      </c>
-      <c r="I38" t="s" s="191">
-        <v>19</v>
-      </c>
-      <c r="J38"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="B40" t="s" s="195">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s" s="196">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s" s="197">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s" s="198">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s" s="199">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s" s="200">
+        <v>14</v>
+      </c>
+      <c r="J40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="3">
         <v>60</v>
       </c>
-      <c r="B39" t="s" s="193">
-        <v>14</v>
-      </c>
-      <c r="H39" t="s" s="194">
-        <v>12</v>
-      </c>
-      <c r="I39" t="s" s="195">
-        <v>19</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="B41" t="s" s="202">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s" s="203">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s" s="204">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s" s="205">
         <v>61</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="1">
+      <c r="G41" t="s" s="206">
+        <v>27</v>
+      </c>
+      <c r="I41" t="s" s="207">
+        <v>14</v>
+      </c>
+      <c r="J41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="3">
         <v>62</v>
       </c>
-      <c r="B40" t="s" s="197">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s" s="198">
-        <v>13</v>
-      </c>
-      <c r="D40" t="s" s="199">
-        <v>14</v>
-      </c>
-      <c r="H40" t="s" s="200">
-        <v>15</v>
-      </c>
-      <c r="I40" t="s" s="201">
-        <v>19</v>
-      </c>
-      <c r="J40"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="1">
+      <c r="B42" t="s" s="209">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s" s="210">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s" s="211">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s" s="212">
+        <v>27</v>
+      </c>
+      <c r="I42" t="s" s="213">
+        <v>14</v>
+      </c>
+      <c r="J42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="3">
         <v>63</v>
       </c>
-      <c r="B41" t="s" s="203">
-        <v>14</v>
-      </c>
-      <c r="I41" t="s" s="204">
-        <v>19</v>
-      </c>
-      <c r="J41"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="1">
+      <c r="B43" t="s" s="215">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s" s="216">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s" s="217">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s" s="218">
         <v>64</v>
       </c>
-      <c r="B42" t="s" s="206">
-        <v>12</v>
-      </c>
-      <c r="C42" t="s" s="207">
-        <v>22</v>
-      </c>
-      <c r="D42" t="s" s="208">
-        <v>14</v>
-      </c>
-      <c r="H42" t="s" s="209">
-        <v>22</v>
-      </c>
-      <c r="I42" t="s" s="210">
-        <v>19</v>
-      </c>
-      <c r="J42"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="H43" t="s" s="219">
+        <v>27</v>
+      </c>
+      <c r="I43" t="s" s="220">
+        <v>14</v>
+      </c>
+      <c r="J43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="B43" t="s" s="212">
-        <v>12</v>
-      </c>
-      <c r="F43" t="s" s="213">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s" s="214">
-        <v>12</v>
-      </c>
-      <c r="I43" t="s" s="215">
-        <v>19</v>
-      </c>
-      <c r="J43"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="1">
+      <c r="B44" t="s" s="222">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s" s="223">
+        <v>12</v>
+      </c>
+      <c r="I44" t="s" s="224">
+        <v>14</v>
+      </c>
+      <c r="J44" t="s">
         <v>66</v>
       </c>
-      <c r="B44" t="s" s="217">
-        <v>12</v>
-      </c>
-      <c r="C44" t="s" s="218">
-        <v>22</v>
-      </c>
-      <c r="D44" t="s" s="219">
-        <v>14</v>
-      </c>
-      <c r="H44" t="s" s="220">
-        <v>22</v>
-      </c>
-      <c r="I44" t="s" s="221">
-        <v>19</v>
-      </c>
-      <c r="J44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="B45" t="s" s="223">
-        <v>14</v>
-      </c>
-      <c r="H45" t="s" s="224">
-        <v>22</v>
-      </c>
-      <c r="I45" t="s" s="225">
-        <v>19</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="B45" t="s" s="226">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s" s="227">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s" s="228">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s" s="229">
+        <v>15</v>
+      </c>
+      <c r="I45" t="s" s="230">
+        <v>14</v>
+      </c>
+      <c r="J45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="B46" t="s" s="227">
-        <v>13</v>
-      </c>
-      <c r="C46" t="s" s="228">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s" s="229">
-        <v>12</v>
-      </c>
-      <c r="I46" t="s" s="230">
-        <v>19</v>
+      <c r="B46" t="s" s="232">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s" s="233">
+        <v>14</v>
       </c>
       <c r="J46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="B47" t="s" s="232">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s" s="233">
-        <v>14</v>
-      </c>
-      <c r="I47" t="s" s="234">
-        <v>19</v>
+        <v>69</v>
+      </c>
+      <c r="B47" t="s" s="235">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s" s="236">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s" s="237">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s" s="238">
+        <v>16</v>
+      </c>
+      <c r="I47" t="s" s="239">
+        <v>14</v>
       </c>
       <c r="J47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B48" t="s" s="241">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s" s="242">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s" s="243">
+        <v>12</v>
+      </c>
+      <c r="I48" t="s" s="244">
+        <v>14</v>
+      </c>
+      <c r="J48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="B48" t="s" s="236">
-        <v>12</v>
-      </c>
-      <c r="E48" t="s" s="237">
+      <c r="B49" t="s" s="246">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s" s="247">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s" s="248">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s" s="249">
+        <v>16</v>
+      </c>
+      <c r="I49" t="s" s="250">
+        <v>14</v>
+      </c>
+      <c r="J49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="F48" t="s" s="238">
-        <v>12</v>
-      </c>
-      <c r="I48" t="s" s="239">
-        <v>19</v>
-      </c>
-      <c r="J48"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="B50" t="s" s="252">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s" s="253">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s" s="254">
+        <v>14</v>
+      </c>
+      <c r="J50" t="s">
         <v>73</v>
       </c>
-      <c r="B49" t="s" s="241">
-        <v>12</v>
-      </c>
-      <c r="F49" t="s" s="242">
-        <v>14</v>
-      </c>
-      <c r="H49" t="s" s="243">
-        <v>12</v>
-      </c>
-      <c r="I49" t="s" s="244">
-        <v>19</v>
-      </c>
-      <c r="J49"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="3">
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="B50" t="s" s="246">
-        <v>12</v>
-      </c>
-      <c r="E50" t="s" s="247">
-        <v>14</v>
-      </c>
-      <c r="I50" t="s" s="248">
-        <v>19</v>
-      </c>
-      <c r="J50"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="B51" t="s" s="250">
-        <v>12</v>
-      </c>
-      <c r="C51" t="s" s="251">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s" s="252">
+      <c r="B51" t="s" s="256">
         <v>13</v>
       </c>
-      <c r="I51" t="s" s="253">
-        <v>19</v>
+      <c r="C51" t="s" s="257">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s" s="258">
+        <v>12</v>
+      </c>
+      <c r="I51" t="s" s="259">
+        <v>14</v>
       </c>
       <c r="J51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B52" t="s" s="261">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s" s="262">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s" s="263">
+        <v>14</v>
+      </c>
+      <c r="J52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="3">
         <v>76</v>
       </c>
-      <c r="B52" t="s" s="255">
-        <v>12</v>
-      </c>
-      <c r="E52" t="s" s="256">
-        <v>14</v>
-      </c>
-      <c r="I52" t="s" s="257">
-        <v>19</v>
-      </c>
-      <c r="J52"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="1">
+      <c r="B53" t="s" s="265">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s" s="266">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s" s="267">
+        <v>14</v>
+      </c>
+      <c r="J53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="B53" t="s" s="259">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s" s="260">
-        <v>14</v>
-      </c>
-      <c r="I53" t="s" s="261">
-        <v>19</v>
-      </c>
-      <c r="J53"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="1">
+      <c r="B54" t="s" s="269">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s" s="270">
         <v>78</v>
       </c>
-      <c r="B54" t="s" s="263">
-        <v>12</v>
-      </c>
-      <c r="D54" t="s" s="264">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s" s="265">
-        <v>22</v>
-      </c>
-      <c r="I54" t="s" s="266">
-        <v>19</v>
+      <c r="F54" t="s" s="271">
+        <v>12</v>
+      </c>
+      <c r="I54" t="s" s="272">
+        <v>14</v>
       </c>
       <c r="J54"/>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="1">
+      <c r="A55" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="B55" t="s" s="268">
-        <v>12</v>
-      </c>
-      <c r="D55" t="s" s="269">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s" s="270">
-        <v>15</v>
-      </c>
-      <c r="H55" t="s" s="271">
-        <v>38</v>
-      </c>
-      <c r="I55" t="s" s="272">
-        <v>19</v>
+      <c r="B55" t="s" s="274">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s" s="275">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s" s="276">
+        <v>12</v>
+      </c>
+      <c r="I55" t="s" s="277">
+        <v>14</v>
       </c>
       <c r="J55"/>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="1">
+      <c r="A56" t="s" s="3">
         <v>80</v>
       </c>
-      <c r="B56" t="s" s="274">
-        <v>22</v>
-      </c>
-      <c r="C56" t="s" s="275">
-        <v>14</v>
-      </c>
-      <c r="I56" t="s" s="276">
-        <v>19</v>
+      <c r="B56" t="s" s="279">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s" s="280">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s" s="281">
+        <v>14</v>
       </c>
       <c r="J56"/>
     </row>
@@ -3164,17 +3393,17 @@
       <c r="A57" t="s" s="1">
         <v>81</v>
       </c>
-      <c r="B57" t="s" s="278">
-        <v>12</v>
-      </c>
-      <c r="F57" t="s" s="279">
-        <v>14</v>
-      </c>
-      <c r="H57" t="s" s="280">
-        <v>15</v>
-      </c>
-      <c r="I57" t="s" s="281">
-        <v>19</v>
+      <c r="B57" t="s" s="283">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s" s="284">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s" s="285">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s" s="286">
+        <v>14</v>
       </c>
       <c r="J57"/>
     </row>
@@ -3182,17 +3411,14 @@
       <c r="A58" t="s" s="1">
         <v>82</v>
       </c>
-      <c r="B58" t="s" s="283">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s" s="284">
-        <v>14</v>
-      </c>
-      <c r="H58" t="s" s="285">
-        <v>38</v>
-      </c>
-      <c r="I58" t="s" s="286">
-        <v>19</v>
+      <c r="B58" t="s" s="288">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s" s="289">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s" s="290">
+        <v>14</v>
       </c>
       <c r="J58"/>
     </row>
@@ -3200,35 +3426,32 @@
       <c r="A59" t="s" s="1">
         <v>83</v>
       </c>
-      <c r="B59" t="s" s="288">
-        <v>12</v>
-      </c>
-      <c r="E59" t="s" s="289">
-        <v>14</v>
-      </c>
-      <c r="H59" t="s" s="290">
-        <v>22</v>
-      </c>
-      <c r="I59" t="s" s="291">
-        <v>19</v>
+      <c r="B59" t="s" s="292">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s" s="293">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s" s="294">
+        <v>14</v>
       </c>
       <c r="J59"/>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="1">
         <v>84</v>
       </c>
-      <c r="B60" t="s" s="293">
-        <v>12</v>
-      </c>
-      <c r="E60" t="s" s="294">
-        <v>14</v>
-      </c>
-      <c r="F60" t="s" s="295">
-        <v>12</v>
-      </c>
-      <c r="I60" t="s" s="296">
-        <v>19</v>
+      <c r="B60" t="s" s="296">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s" s="297">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s" s="298">
+        <v>16</v>
+      </c>
+      <c r="I60" t="s" s="299">
+        <v>14</v>
       </c>
       <c r="J60"/>
     </row>
@@ -3236,17 +3459,20 @@
       <c r="A61" t="s" s="1">
         <v>85</v>
       </c>
-      <c r="B61" t="s" s="298">
-        <v>12</v>
-      </c>
-      <c r="E61" t="s" s="299">
-        <v>14</v>
-      </c>
-      <c r="H61" t="s" s="300">
+      <c r="B61" t="s" s="301">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s" s="302">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s" s="303">
         <v>15</v>
       </c>
-      <c r="I61" t="s" s="301">
-        <v>19</v>
+      <c r="H61" t="s" s="304">
+        <v>27</v>
+      </c>
+      <c r="I61" t="s" s="305">
+        <v>14</v>
       </c>
       <c r="J61"/>
     </row>
@@ -3254,463 +3480,460 @@
       <c r="A62" t="s" s="1">
         <v>86</v>
       </c>
-      <c r="B62" t="s" s="303">
-        <v>12</v>
-      </c>
-      <c r="F62" t="s" s="304">
-        <v>14</v>
-      </c>
-      <c r="H62" t="s" s="305">
-        <v>22</v>
-      </c>
-      <c r="I62" t="s" s="306">
-        <v>19</v>
+      <c r="B62" t="s" s="307">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s" s="308">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s" s="309">
+        <v>14</v>
       </c>
       <c r="J62"/>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="1">
         <v>87</v>
       </c>
-      <c r="B63" t="s" s="308">
-        <v>12</v>
-      </c>
-      <c r="C63" t="s" s="309">
-        <v>14</v>
-      </c>
-      <c r="F63" t="s" s="310">
-        <v>12</v>
-      </c>
-      <c r="I63" t="s" s="311">
-        <v>19</v>
-      </c>
-      <c r="J63" t="s">
-        <v>88</v>
-      </c>
+      <c r="B63" t="s" s="311">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s" s="312">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s" s="313">
+        <v>15</v>
+      </c>
+      <c r="I63" t="s" s="314">
+        <v>14</v>
+      </c>
+      <c r="J63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="1">
-        <v>89</v>
-      </c>
-      <c r="B64" t="s" s="313">
-        <v>12</v>
-      </c>
-      <c r="F64" t="s" s="314">
-        <v>14</v>
-      </c>
-      <c r="H64" t="s" s="315">
-        <v>15</v>
-      </c>
-      <c r="I64" t="s" s="316">
-        <v>19</v>
+        <v>88</v>
+      </c>
+      <c r="B64" t="s" s="316">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s" s="317">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s" s="318">
+        <v>27</v>
+      </c>
+      <c r="I64" t="s" s="319">
+        <v>14</v>
       </c>
       <c r="J64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="1">
+        <v>89</v>
+      </c>
+      <c r="B65" t="s" s="321">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s" s="322">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s" s="323">
+        <v>16</v>
+      </c>
+      <c r="I65" t="s" s="324">
+        <v>14</v>
+      </c>
+      <c r="J65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="B65" t="s" s="318">
-        <v>12</v>
-      </c>
-      <c r="C65" t="s" s="319">
-        <v>14</v>
-      </c>
-      <c r="H65" t="s" s="320">
-        <v>38</v>
-      </c>
-      <c r="I65" t="s" s="321">
-        <v>19</v>
-      </c>
-      <c r="J65"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="1">
+      <c r="B66" t="s" s="326">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s" s="327">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s" s="328">
+        <v>12</v>
+      </c>
+      <c r="I66" t="s" s="329">
+        <v>14</v>
+      </c>
+      <c r="J66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="1">
         <v>91</v>
       </c>
-      <c r="B66" t="s" s="323">
-        <v>12</v>
-      </c>
-      <c r="F66" t="s" s="324">
-        <v>14</v>
-      </c>
-      <c r="H66" t="s" s="325">
-        <v>22</v>
-      </c>
-      <c r="I66" t="s" s="326">
-        <v>19</v>
-      </c>
-      <c r="J66"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="B67" t="s" s="331">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s" s="332">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s" s="333">
+        <v>15</v>
+      </c>
+      <c r="I67" t="s" s="334">
+        <v>14</v>
+      </c>
+      <c r="J67"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="1">
         <v>92</v>
       </c>
-      <c r="B67" t="s" s="328">
-        <v>12</v>
-      </c>
-      <c r="C67" t="s" s="329">
-        <v>14</v>
-      </c>
-      <c r="F67" t="s" s="330">
-        <v>12</v>
-      </c>
-      <c r="I67" t="s" s="331">
-        <v>19</v>
-      </c>
-      <c r="J67"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="B68" t="s" s="336">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s" s="337">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s" s="338">
+        <v>16</v>
+      </c>
+      <c r="I68" t="s" s="339">
+        <v>14</v>
+      </c>
+      <c r="J68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="1">
         <v>93</v>
       </c>
-      <c r="B68" t="s" s="333">
-        <v>12</v>
-      </c>
-      <c r="F68" t="s" s="334">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s" s="335">
-        <v>22</v>
-      </c>
-      <c r="H68" t="s" s="336">
-        <v>12</v>
-      </c>
-      <c r="I68" t="s" s="337">
-        <v>19</v>
-      </c>
-      <c r="J68" t="s">
+      <c r="B69" t="s" s="341">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s" s="342">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s" s="343">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s" s="344">
+        <v>14</v>
+      </c>
+      <c r="J69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
         <v>94</v>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="3">
+      <c r="B70" t="s" s="346">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s" s="347">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s" s="348">
+        <v>12</v>
+      </c>
+      <c r="I70" t="s" s="349">
+        <v>14</v>
+      </c>
+      <c r="J70" t="s">
         <v>95</v>
       </c>
-      <c r="B69" t="s" s="339">
-        <v>12</v>
-      </c>
-      <c r="F69" t="s" s="340">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s" s="341">
-        <v>22</v>
-      </c>
-      <c r="I69" t="s" s="342">
-        <v>19</v>
-      </c>
-      <c r="J69"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="1">
-        <v>96</v>
-      </c>
-      <c r="B70" t="s" s="344">
-        <v>12</v>
-      </c>
-      <c r="E70" t="s" s="345">
-        <v>97</v>
-      </c>
-      <c r="F70" t="s" s="346">
-        <v>14</v>
-      </c>
-      <c r="H70" t="s" s="347">
-        <v>15</v>
-      </c>
-      <c r="I70" t="s" s="348">
-        <v>19</v>
-      </c>
-      <c r="J70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="1">
-        <v>98</v>
-      </c>
-      <c r="B71" t="s" s="350">
-        <v>22</v>
-      </c>
-      <c r="C71" t="s" s="351">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s" s="352">
-        <v>38</v>
-      </c>
-      <c r="I71" t="s" s="353">
-        <v>19</v>
+        <v>96</v>
+      </c>
+      <c r="B71" t="s" s="351">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s" s="352">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s" s="353">
+        <v>15</v>
+      </c>
+      <c r="I71" t="s" s="354">
+        <v>14</v>
       </c>
       <c r="J71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="1">
+        <v>97</v>
+      </c>
+      <c r="B72" t="s" s="356">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s" s="357">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s" s="358">
+        <v>27</v>
+      </c>
+      <c r="I72" t="s" s="359">
+        <v>14</v>
+      </c>
+      <c r="J72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="B73" t="s" s="361">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s" s="362">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s" s="363">
+        <v>16</v>
+      </c>
+      <c r="I73" t="s" s="364">
+        <v>14</v>
+      </c>
+      <c r="J73"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="B72" t="s" s="355">
-        <v>12</v>
-      </c>
-      <c r="E72" t="s" s="356">
-        <v>14</v>
-      </c>
-      <c r="H72" t="s" s="357">
-        <v>15</v>
-      </c>
-      <c r="I72" t="s" s="358">
-        <v>19</v>
-      </c>
-      <c r="J72"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="B74" t="s" s="366">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s" s="367">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s" s="368">
+        <v>12</v>
+      </c>
+      <c r="I74" t="s" s="369">
+        <v>14</v>
+      </c>
+      <c r="J74"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="B73" t="s" s="360">
-        <v>12</v>
-      </c>
-      <c r="E73" t="s" s="361">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s" s="362">
-        <v>12</v>
-      </c>
-      <c r="I73" t="s" s="363">
-        <v>19</v>
-      </c>
-      <c r="J73" t="s">
+      <c r="B75" t="s" s="371">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s" s="372">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s" s="373">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s" s="374">
+        <v>12</v>
+      </c>
+      <c r="I75" t="s" s="375">
+        <v>14</v>
+      </c>
+      <c r="J75" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="s" s="1">
+    <row r="76">
+      <c r="A76" t="s" s="3">
         <v>102</v>
       </c>
-      <c r="B74" t="s" s="365">
-        <v>12</v>
-      </c>
-      <c r="E74" t="s" s="366">
-        <v>14</v>
-      </c>
-      <c r="I74" t="s" s="367">
-        <v>19</v>
-      </c>
-      <c r="J74"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="1">
-        <v>103</v>
-      </c>
-      <c r="B75" t="s" s="369">
-        <v>12</v>
-      </c>
-      <c r="E75" t="s" s="370">
-        <v>14</v>
-      </c>
-      <c r="I75" t="s" s="371">
-        <v>19</v>
-      </c>
-      <c r="J75"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B76" t="s" s="373">
-        <v>12</v>
-      </c>
-      <c r="D76" t="s" s="374">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s" s="375">
-        <v>12</v>
-      </c>
-      <c r="I76" t="s" s="376">
-        <v>16</v>
-      </c>
-      <c r="J76" t="s">
-        <v>105</v>
-      </c>
+      <c r="B76" t="s" s="377">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s" s="378">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s" s="379">
+        <v>16</v>
+      </c>
+      <c r="I76" t="s" s="380">
+        <v>14</v>
+      </c>
+      <c r="J76"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="1">
-        <v>106</v>
-      </c>
-      <c r="B77" t="s" s="378">
-        <v>12</v>
-      </c>
-      <c r="C77" t="s" s="379">
-        <v>22</v>
-      </c>
-      <c r="D77" t="s" s="380">
-        <v>14</v>
-      </c>
-      <c r="H77" t="s" s="381">
-        <v>22</v>
-      </c>
-      <c r="I77" t="s" s="382">
-        <v>19</v>
+        <v>103</v>
+      </c>
+      <c r="B77" t="s" s="382">
+        <v>12</v>
+      </c>
+      <c r="E77" t="s" s="383">
+        <v>104</v>
+      </c>
+      <c r="F77" t="s" s="384">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s" s="385">
+        <v>15</v>
+      </c>
+      <c r="I77" t="s" s="386">
+        <v>14</v>
       </c>
       <c r="J77"/>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="1">
-        <v>107</v>
-      </c>
-      <c r="B78" t="s" s="384">
+      <c r="A78" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B78" t="s" s="388">
+        <v>16</v>
+      </c>
+      <c r="E78" t="s" s="389">
         <v>13</v>
       </c>
-      <c r="D78" t="s" s="385">
-        <v>14</v>
-      </c>
-      <c r="H78" t="s" s="386">
-        <v>15</v>
-      </c>
-      <c r="I78" t="s" s="387">
-        <v>19</v>
+      <c r="G78" t="s" s="390">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s" s="391">
+        <v>12</v>
+      </c>
+      <c r="I78" t="s" s="392">
+        <v>14</v>
       </c>
       <c r="J78"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="1">
-        <v>108</v>
-      </c>
-      <c r="B79" t="s" s="389">
-        <v>12</v>
-      </c>
-      <c r="G79" t="s" s="390">
-        <v>14</v>
-      </c>
-      <c r="H79" t="s" s="391">
-        <v>15</v>
-      </c>
-      <c r="I79" t="s" s="392">
-        <v>16</v>
+        <v>106</v>
+      </c>
+      <c r="B79" t="s" s="394">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s" s="395">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s" s="396">
+        <v>27</v>
+      </c>
+      <c r="I79" t="s" s="397">
+        <v>14</v>
       </c>
       <c r="J79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="B80" t="s" s="399">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s" s="400">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s" s="401">
+        <v>15</v>
+      </c>
+      <c r="I80" t="s" s="402">
+        <v>14</v>
+      </c>
+      <c r="J80"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B81" t="s" s="404">
+        <v>12</v>
+      </c>
+      <c r="E81" t="s" s="405">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s" s="406">
+        <v>12</v>
+      </c>
+      <c r="I81" t="s" s="407">
+        <v>14</v>
+      </c>
+      <c r="J81" t="s">
         <v>109</v>
       </c>
-      <c r="B80" t="s" s="394">
-        <v>22</v>
-      </c>
-      <c r="D80" t="s" s="395">
-        <v>14</v>
-      </c>
-      <c r="H80" t="s" s="396">
-        <v>22</v>
-      </c>
-      <c r="I80" t="s" s="397">
-        <v>19</v>
-      </c>
-      <c r="J80"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="1">
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="1">
         <v>110</v>
       </c>
-      <c r="B81" t="s" s="399">
-        <v>22</v>
-      </c>
-      <c r="E81" t="s" s="400">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s" s="401">
-        <v>22</v>
-      </c>
-      <c r="I81" t="s" s="402">
-        <v>19</v>
-      </c>
-      <c r="J81"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="B82" t="s" s="409">
+        <v>12</v>
+      </c>
+      <c r="E82" t="s" s="410">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s" s="411">
+        <v>14</v>
+      </c>
+      <c r="J82"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="1">
         <v>111</v>
       </c>
-      <c r="B82" t="s" s="404">
-        <v>22</v>
-      </c>
-      <c r="E82" t="s" s="405">
-        <v>14</v>
-      </c>
-      <c r="F82" t="s" s="406">
-        <v>22</v>
-      </c>
-      <c r="H82" t="s" s="407">
-        <v>12</v>
-      </c>
-      <c r="I82" t="s" s="408">
-        <v>19</v>
-      </c>
-      <c r="J82"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="3">
+      <c r="B83" t="s" s="413">
+        <v>12</v>
+      </c>
+      <c r="E83" t="s" s="414">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s" s="415">
+        <v>14</v>
+      </c>
+      <c r="J83"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="B83" t="s" s="410">
-        <v>12</v>
-      </c>
-      <c r="F83" t="s" s="411">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s" s="412">
-        <v>13</v>
-      </c>
-      <c r="I83" t="s" s="413">
-        <v>19</v>
-      </c>
-      <c r="J83"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="1">
+      <c r="B84" t="s" s="417">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s" s="418">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s" s="419">
+        <v>12</v>
+      </c>
+      <c r="I84" t="s" s="420">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
         <v>113</v>
       </c>
-      <c r="B84" t="s" s="415">
-        <v>22</v>
-      </c>
-      <c r="C84" t="s" s="416">
-        <v>14</v>
-      </c>
-      <c r="H84" t="s" s="417">
-        <v>22</v>
-      </c>
-      <c r="I84" t="s" s="418">
-        <v>19</v>
-      </c>
-      <c r="J84"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="1">
         <v>114</v>
       </c>
-      <c r="B85" t="s" s="420">
-        <v>22</v>
-      </c>
-      <c r="F85" t="s" s="421">
-        <v>14</v>
-      </c>
-      <c r="H85" t="s" s="422">
-        <v>22</v>
-      </c>
-      <c r="I85" t="s" s="423">
-        <v>19</v>
+      <c r="B85" t="s" s="422">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s" s="423">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s" s="424">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s" s="425">
+        <v>16</v>
+      </c>
+      <c r="I85" t="s" s="426">
+        <v>14</v>
       </c>
       <c r="J85"/>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="3">
+      <c r="A86" t="s" s="1">
         <v>115</v>
       </c>
-      <c r="B86" t="s" s="425">
-        <v>12</v>
-      </c>
-      <c r="E86" t="s" s="426">
-        <v>14</v>
-      </c>
-      <c r="H86" t="s" s="427">
+      <c r="B86" t="s" s="428">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s" s="429">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s" s="430">
         <v>15</v>
       </c>
-      <c r="I86" t="s" s="428">
-        <v>19</v>
+      <c r="I86" t="s" s="431">
+        <v>14</v>
       </c>
       <c r="J86"/>
     </row>
@@ -3718,32 +3941,35 @@
       <c r="A87" t="s" s="1">
         <v>116</v>
       </c>
-      <c r="B87" t="s" s="430">
-        <v>12</v>
-      </c>
-      <c r="C87" t="s" s="431">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s" s="432">
-        <v>13</v>
-      </c>
-      <c r="I87" t="s" s="433">
-        <v>19</v>
+      <c r="B87" t="s" s="433">
+        <v>12</v>
+      </c>
+      <c r="G87" t="s" s="434">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s" s="435">
+        <v>15</v>
+      </c>
+      <c r="I87" t="s" s="436">
+        <v>16</v>
       </c>
       <c r="J87"/>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="1">
         <v>117</v>
       </c>
-      <c r="B88" t="s" s="435">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s" s="436">
-        <v>12</v>
-      </c>
-      <c r="I88" t="s" s="437">
-        <v>16</v>
+      <c r="B88" t="s" s="438">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s" s="439">
+        <v>14</v>
+      </c>
+      <c r="H88" t="s" s="440">
+        <v>16</v>
+      </c>
+      <c r="I88" t="s" s="441">
+        <v>14</v>
       </c>
       <c r="J88"/>
     </row>
@@ -3751,59 +3977,74 @@
       <c r="A89" t="s" s="1">
         <v>118</v>
       </c>
-      <c r="B89" t="s" s="439">
-        <v>12</v>
-      </c>
-      <c r="E89" t="s" s="440">
-        <v>14</v>
-      </c>
-      <c r="H89" t="s" s="441">
-        <v>22</v>
-      </c>
-      <c r="I89" t="s" s="442">
-        <v>19</v>
+      <c r="B89" t="s" s="443">
+        <v>16</v>
+      </c>
+      <c r="E89" t="s" s="444">
+        <v>14</v>
+      </c>
+      <c r="G89" t="s" s="445">
+        <v>16</v>
+      </c>
+      <c r="I89" t="s" s="446">
+        <v>14</v>
       </c>
       <c r="J89"/>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="1">
+      <c r="A90" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="B90" t="s" s="444">
-        <v>14</v>
-      </c>
-      <c r="I90" t="s" s="445">
-        <v>19</v>
+      <c r="B90" t="s" s="448">
+        <v>16</v>
+      </c>
+      <c r="E90" t="s" s="449">
+        <v>14</v>
+      </c>
+      <c r="F90" t="s" s="450">
+        <v>16</v>
+      </c>
+      <c r="H90" t="s" s="451">
+        <v>12</v>
+      </c>
+      <c r="I90" t="s" s="452">
+        <v>14</v>
       </c>
       <c r="J90"/>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="1">
+      <c r="A91" t="s" s="3">
         <v>120</v>
       </c>
-      <c r="B91" t="s" s="447">
-        <v>22</v>
-      </c>
-      <c r="E91" t="s" s="448">
-        <v>14</v>
-      </c>
-      <c r="I91" t="s" s="449">
-        <v>19</v>
+      <c r="B91" t="s" s="454">
+        <v>12</v>
+      </c>
+      <c r="F91" t="s" s="455">
+        <v>14</v>
+      </c>
+      <c r="G91" t="s" s="456">
+        <v>13</v>
+      </c>
+      <c r="I91" t="s" s="457">
+        <v>14</v>
       </c>
       <c r="J91"/>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="3">
+      <c r="A92" t="s" s="1">
         <v>121</v>
       </c>
-      <c r="B92" t="s" s="451">
-        <v>14</v>
-      </c>
-      <c r="H92" t="s" s="452">
-        <v>15</v>
-      </c>
-      <c r="I92" t="s" s="453">
-        <v>19</v>
+      <c r="B92" t="s" s="459">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s" s="460">
+        <v>14</v>
+      </c>
+      <c r="H92" t="s" s="461">
+        <v>16</v>
+      </c>
+      <c r="I92" t="s" s="462">
+        <v>14</v>
       </c>
       <c r="J92"/>
     </row>
@@ -3811,32 +4052,35 @@
       <c r="A93" t="s" s="1">
         <v>122</v>
       </c>
-      <c r="B93" t="s" s="455">
-        <v>14</v>
-      </c>
-      <c r="H93" t="s" s="456">
-        <v>24</v>
-      </c>
-      <c r="I93" t="s" s="457">
-        <v>19</v>
+      <c r="B93" t="s" s="464">
+        <v>16</v>
+      </c>
+      <c r="F93" t="s" s="465">
+        <v>14</v>
+      </c>
+      <c r="H93" t="s" s="466">
+        <v>16</v>
+      </c>
+      <c r="I93" t="s" s="467">
+        <v>14</v>
       </c>
       <c r="J93"/>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="1">
+      <c r="A94" t="s" s="3">
         <v>123</v>
       </c>
-      <c r="B94" t="s" s="459">
-        <v>22</v>
-      </c>
-      <c r="F94" t="s" s="460">
-        <v>14</v>
-      </c>
-      <c r="H94" t="s" s="461">
+      <c r="B94" t="s" s="469">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s" s="470">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s" s="471">
         <v>15</v>
       </c>
-      <c r="I94" t="s" s="462">
-        <v>19</v>
+      <c r="I94" t="s" s="472">
+        <v>14</v>
       </c>
       <c r="J94"/>
     </row>
@@ -3844,202 +4088,385 @@
       <c r="A95" t="s" s="3">
         <v>124</v>
       </c>
-      <c r="B95" t="s" s="464">
+      <c r="B95" t="s" s="474">
+        <v>12</v>
+      </c>
+      <c r="E95" t="s" s="475">
         <v>13</v>
       </c>
-      <c r="D95" t="s" s="465">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s" s="466">
-        <v>22</v>
-      </c>
-      <c r="I95" t="s" s="467">
-        <v>19</v>
-      </c>
-      <c r="J95"/>
+      <c r="F95" t="s" s="476">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s" s="477">
+        <v>15</v>
+      </c>
+      <c r="H95" t="s" s="478">
+        <v>14</v>
+      </c>
+      <c r="I95"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="1">
         <v>125</v>
       </c>
-      <c r="B96" t="s" s="469">
+      <c r="B96" t="s" s="480">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s" s="481">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s" s="482">
         <v>13</v>
       </c>
-      <c r="C96" t="s" s="470">
-        <v>14</v>
-      </c>
-      <c r="H96" t="s" s="471">
-        <v>15</v>
-      </c>
-      <c r="I96" t="s" s="472">
-        <v>19</v>
+      <c r="I96" t="s" s="483">
+        <v>14</v>
       </c>
       <c r="J96"/>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="3">
+      <c r="A97" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="B97" t="s" s="474">
-        <v>14</v>
-      </c>
-      <c r="F97" t="s" s="475">
-        <v>38</v>
-      </c>
-      <c r="I97" t="s" s="476">
-        <v>19</v>
-      </c>
-      <c r="J97" t="s">
-        <v>127</v>
-      </c>
+      <c r="B97" t="s" s="485">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s" s="486">
+        <v>12</v>
+      </c>
+      <c r="I97" t="s" s="487">
+        <v>16</v>
+      </c>
+      <c r="J97"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="1">
-        <v>128</v>
-      </c>
-      <c r="B98" t="s" s="478">
-        <v>14</v>
-      </c>
-      <c r="H98" t="s" s="479">
-        <v>15</v>
-      </c>
-      <c r="I98" t="s" s="480">
-        <v>19</v>
+        <v>127</v>
+      </c>
+      <c r="B98" t="s" s="489">
+        <v>12</v>
+      </c>
+      <c r="E98" t="s" s="490">
+        <v>14</v>
+      </c>
+      <c r="H98" t="s" s="491">
+        <v>16</v>
+      </c>
+      <c r="I98" t="s" s="492">
+        <v>14</v>
       </c>
       <c r="J98"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="1">
+        <v>128</v>
+      </c>
+      <c r="B99" t="s" s="494">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s" s="495">
+        <v>14</v>
+      </c>
+      <c r="J99"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="3">
         <v>129</v>
       </c>
-      <c r="B99" t="s" s="482">
-        <v>12</v>
-      </c>
-      <c r="E99" t="s" s="483">
-        <v>14</v>
-      </c>
-      <c r="I99" t="s" s="484">
-        <v>19</v>
-      </c>
-      <c r="J99"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="1">
-        <v>130</v>
-      </c>
-      <c r="B100" t="s" s="486">
-        <v>12</v>
-      </c>
-      <c r="G100" t="s" s="487">
-        <v>14</v>
-      </c>
-      <c r="H100" t="s" s="488">
-        <v>15</v>
-      </c>
-      <c r="I100" t="s" s="489">
-        <v>19</v>
+      <c r="B100" t="s" s="497">
+        <v>12</v>
+      </c>
+      <c r="E100" t="s" s="498">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s" s="499">
+        <v>16</v>
+      </c>
+      <c r="I100" t="s" s="500">
+        <v>14</v>
       </c>
       <c r="J100"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="1">
+        <v>130</v>
+      </c>
+      <c r="B101" t="s" s="502">
+        <v>16</v>
+      </c>
+      <c r="E101" t="s" s="503">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s" s="504">
+        <v>14</v>
+      </c>
+      <c r="J101"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="3">
         <v>131</v>
       </c>
-      <c r="B101" t="s" s="491">
-        <v>14</v>
-      </c>
-      <c r="H101" t="s" s="492">
+      <c r="B102" t="s" s="506">
+        <v>14</v>
+      </c>
+      <c r="H102" t="s" s="507">
         <v>15</v>
       </c>
-      <c r="I101" t="s" s="493">
-        <v>19</v>
-      </c>
-      <c r="J101"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="1">
-        <v>132</v>
-      </c>
-      <c r="B102" t="s" s="495">
-        <v>14</v>
-      </c>
-      <c r="I102" t="s" s="496">
-        <v>19</v>
+      <c r="I102" t="s" s="508">
+        <v>14</v>
       </c>
       <c r="J102"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="1">
+        <v>132</v>
+      </c>
+      <c r="B103" t="s" s="510">
+        <v>14</v>
+      </c>
+      <c r="H103" t="s" s="511">
+        <v>23</v>
+      </c>
+      <c r="I103" t="s" s="512">
+        <v>14</v>
+      </c>
+      <c r="J103"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="1">
         <v>133</v>
       </c>
-      <c r="B103" t="s" s="498">
-        <v>12</v>
-      </c>
-      <c r="E103" t="s" s="499">
-        <v>14</v>
-      </c>
-      <c r="I103" t="s" s="500">
-        <v>19</v>
-      </c>
-      <c r="J103"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="B104" t="s" s="514">
+        <v>16</v>
+      </c>
+      <c r="F104" t="s" s="515">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s" s="516">
+        <v>15</v>
+      </c>
+      <c r="I104" t="s" s="517">
+        <v>14</v>
+      </c>
+      <c r="J104"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="3">
         <v>134</v>
       </c>
-      <c r="B104" t="s" s="502">
-        <v>12</v>
-      </c>
-      <c r="F104" t="s" s="503">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s" s="504">
-        <v>12</v>
-      </c>
-      <c r="I104" t="s" s="505">
-        <v>19</v>
-      </c>
-      <c r="J104"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B105" t="s" s="507">
-        <v>12</v>
-      </c>
-      <c r="E105" t="s" s="508">
-        <v>72</v>
-      </c>
-      <c r="F105" t="s" s="509">
-        <v>12</v>
-      </c>
-      <c r="I105" t="s" s="510">
-        <v>19</v>
+      <c r="B105" t="s" s="519">
+        <v>13</v>
+      </c>
+      <c r="D105" t="s" s="520">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s" s="521">
+        <v>16</v>
+      </c>
+      <c r="I105" t="s" s="522">
+        <v>14</v>
       </c>
       <c r="J105"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="1">
+        <v>135</v>
+      </c>
+      <c r="B106" t="s" s="524">
+        <v>13</v>
+      </c>
+      <c r="C106" t="s" s="525">
+        <v>14</v>
+      </c>
+      <c r="H106" t="s" s="526">
+        <v>15</v>
+      </c>
+      <c r="I106" t="s" s="527">
+        <v>14</v>
+      </c>
+      <c r="J106"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="3">
         <v>136</v>
       </c>
-      <c r="B106" t="s" s="512">
-        <v>12</v>
-      </c>
-      <c r="F106" t="s" s="513">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s" s="514">
-        <v>24</v>
-      </c>
-      <c r="H106" t="s" s="515">
+      <c r="B107" t="s" s="529">
+        <v>14</v>
+      </c>
+      <c r="F107" t="s" s="530">
+        <v>27</v>
+      </c>
+      <c r="I107" t="s" s="531">
+        <v>14</v>
+      </c>
+      <c r="J107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="1">
+        <v>138</v>
+      </c>
+      <c r="B108" t="s" s="533">
+        <v>14</v>
+      </c>
+      <c r="H108" t="s" s="534">
         <v>15</v>
       </c>
-      <c r="I106" t="s" s="516">
-        <v>19</v>
-      </c>
-      <c r="J106" t="s">
-        <v>137</v>
+      <c r="I108" t="s" s="535">
+        <v>14</v>
+      </c>
+      <c r="J108"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="1">
+        <v>139</v>
+      </c>
+      <c r="B109" t="s" s="537">
+        <v>12</v>
+      </c>
+      <c r="E109" t="s" s="538">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s" s="539">
+        <v>14</v>
+      </c>
+      <c r="J109"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="B110" t="s" s="541">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s" s="542">
+        <v>14</v>
+      </c>
+      <c r="H110" t="s" s="543">
+        <v>15</v>
+      </c>
+      <c r="I110" t="s" s="544">
+        <v>14</v>
+      </c>
+      <c r="J110"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="1">
+        <v>141</v>
+      </c>
+      <c r="B111" t="s" s="546">
+        <v>14</v>
+      </c>
+      <c r="H111" t="s" s="547">
+        <v>15</v>
+      </c>
+      <c r="I111" t="s" s="548">
+        <v>14</v>
+      </c>
+      <c r="J111"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="1">
+        <v>142</v>
+      </c>
+      <c r="B112" t="s" s="550">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s" s="551">
+        <v>14</v>
+      </c>
+      <c r="J112"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="1">
+        <v>143</v>
+      </c>
+      <c r="B113" t="s" s="553">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s" s="554">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s" s="555">
+        <v>14</v>
+      </c>
+      <c r="J113"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B114" t="s" s="557">
+        <v>12</v>
+      </c>
+      <c r="F114" t="s" s="558">
+        <v>14</v>
+      </c>
+      <c r="G114" t="s" s="559">
+        <v>12</v>
+      </c>
+      <c r="I114" t="s" s="560">
+        <v>14</v>
+      </c>
+      <c r="J114"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B115" t="s" s="562">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s" s="563">
+        <v>78</v>
+      </c>
+      <c r="F115" t="s" s="564">
+        <v>12</v>
+      </c>
+      <c r="I115" t="s" s="565">
+        <v>14</v>
+      </c>
+      <c r="J115"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="3">
+        <v>146</v>
+      </c>
+      <c r="B116" t="s" s="567">
+        <v>12</v>
+      </c>
+      <c r="F116" t="s" s="568">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s" s="569">
+        <v>13</v>
+      </c>
+      <c r="I116" t="s" s="570">
+        <v>14</v>
+      </c>
+      <c r="J116"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="1">
+        <v>147</v>
+      </c>
+      <c r="B117" t="s" s="572">
+        <v>12</v>
+      </c>
+      <c r="F117" t="s" s="573">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s" s="574">
+        <v>23</v>
+      </c>
+      <c r="H117" t="s" s="575">
+        <v>15</v>
+      </c>
+      <c r="I117" t="s" s="576">
+        <v>14</v>
+      </c>
+      <c r="J117" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4052,182 +4479,202 @@
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="E9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:H11"/>
-    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:G15"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E19:G19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G41:H41"/>
     <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:G50"/>
     <mergeCell ref="C51:F51"/>
     <mergeCell ref="G51:H51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="E67:G67"/>
     <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
     <mergeCell ref="G76:H76"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="E80:G80"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="E81:F81"/>
     <mergeCell ref="G81:H81"/>
     <mergeCell ref="B82:D82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:G88"/>
     <mergeCell ref="B89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:H99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="B102:H102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="E103:H103"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="C96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="E101:H101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B103:G103"/>
     <mergeCell ref="B104:E104"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="F105:H105"/>
-    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="F107:H107"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="E109:H109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B112:H112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="E113:H113"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="F115:H115"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="B117:E117"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/tweaks.xlsx
+++ b/tweaks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="149">
   <si>
     <t>Name</t>
   </si>
@@ -164,6 +164,9 @@
     <t>Contrast70</t>
   </si>
   <si>
+    <t>7.0</t>
+  </si>
+  <si>
     <t>DismissProgress</t>
   </si>
   <si>
@@ -246,9 +249,6 @@
   </si>
   <si>
     <t>HDR Badge 7.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
   </si>
   <si>
     <t>Handoff4S</t>
@@ -607,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="577">
+  <cellXfs count="579">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
@@ -1045,6 +1045,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
@@ -2345,7 +2351,6 @@
   <cols>
     <col min="1" max="1" width="27.984375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="64.10546875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="4.18359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2912,446 +2917,452 @@
       <c r="B31" t="s" s="149">
         <v>12</v>
       </c>
-      <c r="I31" t="s" s="150">
+      <c r="E31" t="s" s="150">
+        <v>50</v>
+      </c>
+      <c r="F31" t="s" s="151">
+        <v>12</v>
+      </c>
+      <c r="I31" t="s" s="152">
         <v>14</v>
       </c>
       <c r="J31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="B32" t="s" s="152">
-        <v>14</v>
-      </c>
-      <c r="I32" t="s" s="153">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s" s="154">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s" s="155">
         <v>14</v>
       </c>
       <c r="J32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s" s="155">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s" s="156">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s" s="157">
-        <v>16</v>
-      </c>
-      <c r="I33" t="s" s="158">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s" s="157">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s" s="158">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s" s="159">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s" s="160">
         <v>14</v>
       </c>
       <c r="J33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="B34" t="s" s="160">
-        <v>12</v>
-      </c>
-      <c r="C34" t="s" s="161">
-        <v>16</v>
-      </c>
-      <c r="D34" t="s" s="162">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s" s="163">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s" s="162">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s" s="163">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s" s="164">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s" s="165">
         <v>27</v>
       </c>
-      <c r="I34" t="s" s="164">
+      <c r="I34" t="s" s="166">
         <v>14</v>
       </c>
       <c r="J34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="B35" t="s" s="166">
-        <v>12</v>
-      </c>
-      <c r="F35" t="s" s="167">
         <v>54</v>
       </c>
-      <c r="G35" t="s" s="168">
+      <c r="B35" t="s" s="168">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s" s="169">
+        <v>55</v>
+      </c>
+      <c r="G35" t="s" s="170">
         <v>27</v>
       </c>
-      <c r="I35" t="s" s="169">
+      <c r="I35" t="s" s="171">
         <v>14</v>
       </c>
       <c r="J35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="3">
-        <v>55</v>
-      </c>
-      <c r="B36" t="s" s="171">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s" s="172">
-        <v>14</v>
-      </c>
-      <c r="H36" t="s" s="173">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s" s="173">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s" s="174">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s" s="175">
         <v>27</v>
       </c>
-      <c r="I36" t="s" s="174">
+      <c r="I36" t="s" s="176">
         <v>14</v>
       </c>
       <c r="J36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="B37" t="s" s="176">
-        <v>12</v>
-      </c>
-      <c r="C37" t="s" s="177">
-        <v>16</v>
-      </c>
-      <c r="D37" t="s" s="178">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s" s="178">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s" s="179">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s" s="180">
         <v>23</v>
       </c>
-      <c r="E37" t="s" s="179">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s" s="180">
-        <v>12</v>
-      </c>
-      <c r="I37" t="s" s="181">
+      <c r="E37" t="s" s="181">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s" s="182">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s" s="183">
         <v>14</v>
       </c>
       <c r="J37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="B38" t="s" s="183">
-        <v>12</v>
-      </c>
-      <c r="F38" t="s" s="184">
-        <v>54</v>
-      </c>
-      <c r="G38" t="s" s="185">
-        <v>14</v>
-      </c>
-      <c r="H38" t="s" s="186">
-        <v>12</v>
-      </c>
-      <c r="I38" t="s" s="187">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s" s="185">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s" s="186">
+        <v>55</v>
+      </c>
+      <c r="G38" t="s" s="187">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s" s="188">
+        <v>12</v>
+      </c>
+      <c r="I38" t="s" s="189">
         <v>14</v>
       </c>
       <c r="J38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="B39" t="s" s="189">
-        <v>12</v>
-      </c>
-      <c r="C39" t="s" s="190">
+        <v>59</v>
+      </c>
+      <c r="B39" t="s" s="191">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s" s="192">
         <v>13</v>
       </c>
-      <c r="D39" t="s" s="191">
-        <v>14</v>
-      </c>
-      <c r="H39" t="s" s="192">
+      <c r="D39" t="s" s="193">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s" s="194">
         <v>13</v>
       </c>
-      <c r="I39" t="s" s="193">
+      <c r="I39" t="s" s="195">
         <v>14</v>
       </c>
       <c r="J39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="3">
-        <v>59</v>
-      </c>
-      <c r="B40" t="s" s="195">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s" s="196">
-        <v>16</v>
-      </c>
-      <c r="D40" t="s" s="197">
+        <v>60</v>
+      </c>
+      <c r="B40" t="s" s="197">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s" s="198">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s" s="199">
         <v>23</v>
       </c>
-      <c r="E40" t="s" s="198">
-        <v>14</v>
-      </c>
-      <c r="H40" t="s" s="199">
+      <c r="E40" t="s" s="200">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s" s="201">
         <v>13</v>
       </c>
-      <c r="I40" t="s" s="200">
+      <c r="I40" t="s" s="202">
         <v>14</v>
       </c>
       <c r="J40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="B41" t="s" s="202">
-        <v>12</v>
-      </c>
-      <c r="C41" t="s" s="203">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s" s="204">
-        <v>14</v>
-      </c>
-      <c r="F41" t="s" s="205">
         <v>61</v>
       </c>
-      <c r="G41" t="s" s="206">
+      <c r="B41" t="s" s="204">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s" s="205">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s" s="206">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s" s="207">
+        <v>62</v>
+      </c>
+      <c r="G41" t="s" s="208">
         <v>27</v>
       </c>
-      <c r="I41" t="s" s="207">
+      <c r="I41" t="s" s="209">
         <v>14</v>
       </c>
       <c r="J41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="B42" t="s" s="209">
-        <v>12</v>
-      </c>
-      <c r="C42" t="s" s="210">
-        <v>16</v>
-      </c>
-      <c r="D42" t="s" s="211">
-        <v>14</v>
-      </c>
-      <c r="H42" t="s" s="212">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s" s="211">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s" s="212">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s" s="213">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s" s="214">
         <v>27</v>
       </c>
-      <c r="I42" t="s" s="213">
+      <c r="I42" t="s" s="215">
         <v>14</v>
       </c>
       <c r="J42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="B43" t="s" s="215">
-        <v>12</v>
-      </c>
-      <c r="C43" t="s" s="216">
-        <v>16</v>
-      </c>
-      <c r="D43" t="s" s="217">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s" s="218">
         <v>64</v>
       </c>
-      <c r="H43" t="s" s="219">
+      <c r="B43" t="s" s="217">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s" s="218">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s" s="219">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s" s="220">
+        <v>65</v>
+      </c>
+      <c r="H43" t="s" s="221">
         <v>27</v>
       </c>
-      <c r="I43" t="s" s="220">
+      <c r="I43" t="s" s="222">
         <v>14</v>
       </c>
       <c r="J43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="B44" t="s" s="222">
-        <v>14</v>
-      </c>
-      <c r="H44" t="s" s="223">
-        <v>12</v>
-      </c>
-      <c r="I44" t="s" s="224">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s" s="224">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s" s="225">
+        <v>12</v>
+      </c>
+      <c r="I44" t="s" s="226">
         <v>14</v>
       </c>
       <c r="J44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="B45" t="s" s="226">
-        <v>12</v>
-      </c>
-      <c r="C45" t="s" s="227">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s" s="228">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s" s="229">
         <v>13</v>
       </c>
-      <c r="D45" t="s" s="228">
-        <v>14</v>
-      </c>
-      <c r="H45" t="s" s="229">
+      <c r="D45" t="s" s="230">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s" s="231">
         <v>15</v>
       </c>
-      <c r="I45" t="s" s="230">
+      <c r="I45" t="s" s="232">
         <v>14</v>
       </c>
       <c r="J45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="B46" t="s" s="232">
-        <v>14</v>
-      </c>
-      <c r="I46" t="s" s="233">
+        <v>69</v>
+      </c>
+      <c r="B46" t="s" s="234">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s" s="235">
         <v>14</v>
       </c>
       <c r="J46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="B47" t="s" s="235">
-        <v>12</v>
-      </c>
-      <c r="C47" t="s" s="236">
-        <v>16</v>
-      </c>
-      <c r="D47" t="s" s="237">
-        <v>14</v>
-      </c>
-      <c r="H47" t="s" s="238">
-        <v>16</v>
-      </c>
-      <c r="I47" t="s" s="239">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s" s="237">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s" s="238">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s" s="239">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s" s="240">
+        <v>16</v>
+      </c>
+      <c r="I47" t="s" s="241">
         <v>14</v>
       </c>
       <c r="J47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="B48" t="s" s="241">
-        <v>12</v>
-      </c>
-      <c r="F48" t="s" s="242">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s" s="243">
-        <v>12</v>
-      </c>
-      <c r="I48" t="s" s="244">
+        <v>71</v>
+      </c>
+      <c r="B48" t="s" s="243">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s" s="244">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s" s="245">
+        <v>12</v>
+      </c>
+      <c r="I48" t="s" s="246">
         <v>14</v>
       </c>
       <c r="J48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="B49" t="s" s="246">
-        <v>12</v>
-      </c>
-      <c r="C49" t="s" s="247">
-        <v>16</v>
-      </c>
-      <c r="D49" t="s" s="248">
-        <v>14</v>
-      </c>
-      <c r="H49" t="s" s="249">
-        <v>16</v>
-      </c>
-      <c r="I49" t="s" s="250">
+        <v>72</v>
+      </c>
+      <c r="B49" t="s" s="248">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s" s="249">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s" s="250">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s" s="251">
+        <v>16</v>
+      </c>
+      <c r="I49" t="s" s="252">
         <v>14</v>
       </c>
       <c r="J49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="B50" t="s" s="252">
-        <v>14</v>
-      </c>
-      <c r="H50" t="s" s="253">
-        <v>16</v>
-      </c>
-      <c r="I50" t="s" s="254">
+        <v>73</v>
+      </c>
+      <c r="B50" t="s" s="254">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s" s="255">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s" s="256">
         <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="B51" t="s" s="256">
+        <v>75</v>
+      </c>
+      <c r="B51" t="s" s="258">
         <v>13</v>
       </c>
-      <c r="C51" t="s" s="257">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s" s="258">
-        <v>12</v>
-      </c>
-      <c r="I51" t="s" s="259">
+      <c r="C51" t="s" s="259">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s" s="260">
+        <v>12</v>
+      </c>
+      <c r="I51" t="s" s="261">
         <v>14</v>
       </c>
       <c r="J51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="B52" t="s" s="261">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s" s="262">
-        <v>14</v>
-      </c>
-      <c r="I52" t="s" s="263">
+        <v>76</v>
+      </c>
+      <c r="B52" t="s" s="263">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s" s="264">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s" s="265">
         <v>14</v>
       </c>
       <c r="J52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="3">
-        <v>76</v>
-      </c>
-      <c r="B53" t="s" s="265">
-        <v>16</v>
-      </c>
-      <c r="F53" t="s" s="266">
-        <v>14</v>
-      </c>
-      <c r="I53" t="s" s="267">
+        <v>77</v>
+      </c>
+      <c r="B53" t="s" s="267">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s" s="268">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s" s="269">
         <v>14</v>
       </c>
       <c r="J53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="B54" t="s" s="269">
-        <v>12</v>
-      </c>
-      <c r="E54" t="s" s="270">
         <v>78</v>
       </c>
-      <c r="F54" t="s" s="271">
-        <v>12</v>
-      </c>
-      <c r="I54" t="s" s="272">
+      <c r="B54" t="s" s="271">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s" s="272">
+        <v>50</v>
+      </c>
+      <c r="F54" t="s" s="273">
+        <v>12</v>
+      </c>
+      <c r="I54" t="s" s="274">
         <v>14</v>
       </c>
       <c r="J54"/>
@@ -3360,16 +3371,16 @@
       <c r="A55" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="B55" t="s" s="274">
-        <v>12</v>
-      </c>
-      <c r="F55" t="s" s="275">
-        <v>14</v>
-      </c>
-      <c r="H55" t="s" s="276">
-        <v>12</v>
-      </c>
-      <c r="I55" t="s" s="277">
+      <c r="B55" t="s" s="276">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s" s="277">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s" s="278">
+        <v>12</v>
+      </c>
+      <c r="I55" t="s" s="279">
         <v>14</v>
       </c>
       <c r="J55"/>
@@ -3378,13 +3389,13 @@
       <c r="A56" t="s" s="3">
         <v>80</v>
       </c>
-      <c r="B56" t="s" s="279">
-        <v>12</v>
-      </c>
-      <c r="E56" t="s" s="280">
-        <v>14</v>
-      </c>
-      <c r="I56" t="s" s="281">
+      <c r="B56" t="s" s="281">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s" s="282">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s" s="283">
         <v>14</v>
       </c>
       <c r="J56"/>
@@ -3393,16 +3404,16 @@
       <c r="A57" t="s" s="1">
         <v>81</v>
       </c>
-      <c r="B57" t="s" s="283">
-        <v>12</v>
-      </c>
-      <c r="C57" t="s" s="284">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s" s="285">
+      <c r="B57" t="s" s="285">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s" s="286">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s" s="287">
         <v>13</v>
       </c>
-      <c r="I57" t="s" s="286">
+      <c r="I57" t="s" s="288">
         <v>14</v>
       </c>
       <c r="J57"/>
@@ -3411,13 +3422,13 @@
       <c r="A58" t="s" s="1">
         <v>82</v>
       </c>
-      <c r="B58" t="s" s="288">
-        <v>12</v>
-      </c>
-      <c r="E58" t="s" s="289">
-        <v>14</v>
-      </c>
-      <c r="I58" t="s" s="290">
+      <c r="B58" t="s" s="290">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s" s="291">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s" s="292">
         <v>14</v>
       </c>
       <c r="J58"/>
@@ -3426,13 +3437,13 @@
       <c r="A59" t="s" s="1">
         <v>83</v>
       </c>
-      <c r="B59" t="s" s="292">
-        <v>12</v>
-      </c>
-      <c r="G59" t="s" s="293">
-        <v>14</v>
-      </c>
-      <c r="I59" t="s" s="294">
+      <c r="B59" t="s" s="294">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s" s="295">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s" s="296">
         <v>14</v>
       </c>
       <c r="J59"/>
@@ -3441,16 +3452,16 @@
       <c r="A60" t="s" s="1">
         <v>84</v>
       </c>
-      <c r="B60" t="s" s="296">
-        <v>12</v>
-      </c>
-      <c r="D60" t="s" s="297">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s" s="298">
-        <v>16</v>
-      </c>
-      <c r="I60" t="s" s="299">
+      <c r="B60" t="s" s="298">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s" s="299">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s" s="300">
+        <v>16</v>
+      </c>
+      <c r="I60" t="s" s="301">
         <v>14</v>
       </c>
       <c r="J60"/>
@@ -3459,19 +3470,19 @@
       <c r="A61" t="s" s="1">
         <v>85</v>
       </c>
-      <c r="B61" t="s" s="301">
-        <v>12</v>
-      </c>
-      <c r="D61" t="s" s="302">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s" s="303">
+      <c r="B61" t="s" s="303">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s" s="304">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s" s="305">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="304">
+      <c r="H61" t="s" s="306">
         <v>27</v>
       </c>
-      <c r="I61" t="s" s="305">
+      <c r="I61" t="s" s="307">
         <v>14</v>
       </c>
       <c r="J61"/>
@@ -3480,13 +3491,13 @@
       <c r="A62" t="s" s="1">
         <v>86</v>
       </c>
-      <c r="B62" t="s" s="307">
-        <v>16</v>
-      </c>
-      <c r="C62" t="s" s="308">
-        <v>14</v>
-      </c>
-      <c r="I62" t="s" s="309">
+      <c r="B62" t="s" s="309">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s" s="310">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s" s="311">
         <v>14</v>
       </c>
       <c r="J62"/>
@@ -3495,16 +3506,16 @@
       <c r="A63" t="s" s="1">
         <v>87</v>
       </c>
-      <c r="B63" t="s" s="311">
-        <v>12</v>
-      </c>
-      <c r="F63" t="s" s="312">
-        <v>14</v>
-      </c>
-      <c r="H63" t="s" s="313">
+      <c r="B63" t="s" s="313">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s" s="314">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s" s="315">
         <v>15</v>
       </c>
-      <c r="I63" t="s" s="314">
+      <c r="I63" t="s" s="316">
         <v>14</v>
       </c>
       <c r="J63"/>
@@ -3513,16 +3524,16 @@
       <c r="A64" t="s" s="1">
         <v>88</v>
       </c>
-      <c r="B64" t="s" s="316">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s" s="317">
-        <v>14</v>
-      </c>
-      <c r="H64" t="s" s="318">
+      <c r="B64" t="s" s="318">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s" s="319">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s" s="320">
         <v>27</v>
       </c>
-      <c r="I64" t="s" s="319">
+      <c r="I64" t="s" s="321">
         <v>14</v>
       </c>
       <c r="J64"/>
@@ -3531,16 +3542,16 @@
       <c r="A65" t="s" s="1">
         <v>89</v>
       </c>
-      <c r="B65" t="s" s="321">
-        <v>12</v>
-      </c>
-      <c r="E65" t="s" s="322">
-        <v>14</v>
-      </c>
-      <c r="H65" t="s" s="323">
-        <v>16</v>
-      </c>
-      <c r="I65" t="s" s="324">
+      <c r="B65" t="s" s="323">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s" s="324">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s" s="325">
+        <v>16</v>
+      </c>
+      <c r="I65" t="s" s="326">
         <v>14</v>
       </c>
       <c r="J65"/>
@@ -3549,16 +3560,16 @@
       <c r="A66" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="B66" t="s" s="326">
-        <v>12</v>
-      </c>
-      <c r="E66" t="s" s="327">
-        <v>14</v>
-      </c>
-      <c r="F66" t="s" s="328">
-        <v>12</v>
-      </c>
-      <c r="I66" t="s" s="329">
+      <c r="B66" t="s" s="328">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s" s="329">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s" s="330">
+        <v>12</v>
+      </c>
+      <c r="I66" t="s" s="331">
         <v>14</v>
       </c>
       <c r="J66"/>
@@ -3567,16 +3578,16 @@
       <c r="A67" t="s" s="1">
         <v>91</v>
       </c>
-      <c r="B67" t="s" s="331">
-        <v>12</v>
-      </c>
-      <c r="E67" t="s" s="332">
-        <v>14</v>
-      </c>
-      <c r="H67" t="s" s="333">
+      <c r="B67" t="s" s="333">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s" s="334">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s" s="335">
         <v>15</v>
       </c>
-      <c r="I67" t="s" s="334">
+      <c r="I67" t="s" s="336">
         <v>14</v>
       </c>
       <c r="J67"/>
@@ -3585,34 +3596,34 @@
       <c r="A68" t="s" s="1">
         <v>92</v>
       </c>
-      <c r="B68" t="s" s="336">
-        <v>12</v>
-      </c>
-      <c r="F68" t="s" s="337">
-        <v>14</v>
-      </c>
-      <c r="H68" t="s" s="338">
-        <v>16</v>
-      </c>
-      <c r="I68" t="s" s="339">
+      <c r="B68" t="s" s="338">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s" s="339">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s" s="340">
+        <v>16</v>
+      </c>
+      <c r="I68" t="s" s="341">
         <v>14</v>
       </c>
       <c r="J68"/>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="1">
+      <c r="A69" t="s" s="3">
         <v>93</v>
       </c>
-      <c r="B69" t="s" s="341">
-        <v>12</v>
-      </c>
-      <c r="G69" t="s" s="342">
-        <v>14</v>
-      </c>
-      <c r="H69" t="s" s="343">
+      <c r="B69" t="s" s="343">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s" s="344">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s" s="345">
         <v>13</v>
       </c>
-      <c r="I69" t="s" s="344">
+      <c r="I69" t="s" s="346">
         <v>14</v>
       </c>
       <c r="J69"/>
@@ -3621,16 +3632,16 @@
       <c r="A70" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="B70" t="s" s="346">
-        <v>12</v>
-      </c>
-      <c r="C70" t="s" s="347">
-        <v>14</v>
-      </c>
-      <c r="F70" t="s" s="348">
-        <v>12</v>
-      </c>
-      <c r="I70" t="s" s="349">
+      <c r="B70" t="s" s="348">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s" s="349">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s" s="350">
+        <v>12</v>
+      </c>
+      <c r="I70" t="s" s="351">
         <v>14</v>
       </c>
       <c r="J70" t="s">
@@ -3641,16 +3652,16 @@
       <c r="A71" t="s" s="1">
         <v>96</v>
       </c>
-      <c r="B71" t="s" s="351">
-        <v>12</v>
-      </c>
-      <c r="F71" t="s" s="352">
-        <v>14</v>
-      </c>
-      <c r="H71" t="s" s="353">
+      <c r="B71" t="s" s="353">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s" s="354">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s" s="355">
         <v>15</v>
       </c>
-      <c r="I71" t="s" s="354">
+      <c r="I71" t="s" s="356">
         <v>14</v>
       </c>
       <c r="J71"/>
@@ -3659,16 +3670,16 @@
       <c r="A72" t="s" s="1">
         <v>97</v>
       </c>
-      <c r="B72" t="s" s="356">
-        <v>12</v>
-      </c>
-      <c r="C72" t="s" s="357">
-        <v>14</v>
-      </c>
-      <c r="H72" t="s" s="358">
+      <c r="B72" t="s" s="358">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s" s="359">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s" s="360">
         <v>27</v>
       </c>
-      <c r="I72" t="s" s="359">
+      <c r="I72" t="s" s="361">
         <v>14</v>
       </c>
       <c r="J72"/>
@@ -3677,16 +3688,16 @@
       <c r="A73" t="s" s="1">
         <v>98</v>
       </c>
-      <c r="B73" t="s" s="361">
-        <v>12</v>
-      </c>
-      <c r="F73" t="s" s="362">
-        <v>14</v>
-      </c>
-      <c r="H73" t="s" s="363">
-        <v>16</v>
-      </c>
-      <c r="I73" t="s" s="364">
+      <c r="B73" t="s" s="363">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s" s="364">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s" s="365">
+        <v>16</v>
+      </c>
+      <c r="I73" t="s" s="366">
         <v>14</v>
       </c>
       <c r="J73"/>
@@ -3695,16 +3706,16 @@
       <c r="A74" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="B74" t="s" s="366">
-        <v>12</v>
-      </c>
-      <c r="C74" t="s" s="367">
-        <v>14</v>
-      </c>
-      <c r="F74" t="s" s="368">
-        <v>12</v>
-      </c>
-      <c r="I74" t="s" s="369">
+      <c r="B74" t="s" s="368">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s" s="369">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s" s="370">
+        <v>12</v>
+      </c>
+      <c r="I74" t="s" s="371">
         <v>14</v>
       </c>
       <c r="J74"/>
@@ -3713,19 +3724,19 @@
       <c r="A75" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="B75" t="s" s="371">
-        <v>12</v>
-      </c>
-      <c r="F75" t="s" s="372">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s" s="373">
-        <v>16</v>
-      </c>
-      <c r="H75" t="s" s="374">
-        <v>12</v>
-      </c>
-      <c r="I75" t="s" s="375">
+      <c r="B75" t="s" s="373">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s" s="374">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s" s="375">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s" s="376">
+        <v>12</v>
+      </c>
+      <c r="I75" t="s" s="377">
         <v>14</v>
       </c>
       <c r="J75" t="s">
@@ -3736,16 +3747,16 @@
       <c r="A76" t="s" s="3">
         <v>102</v>
       </c>
-      <c r="B76" t="s" s="377">
-        <v>12</v>
-      </c>
-      <c r="F76" t="s" s="378">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s" s="379">
-        <v>16</v>
-      </c>
-      <c r="I76" t="s" s="380">
+      <c r="B76" t="s" s="379">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s" s="380">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s" s="381">
+        <v>16</v>
+      </c>
+      <c r="I76" t="s" s="382">
         <v>14</v>
       </c>
       <c r="J76"/>
@@ -3754,19 +3765,19 @@
       <c r="A77" t="s" s="1">
         <v>103</v>
       </c>
-      <c r="B77" t="s" s="382">
-        <v>12</v>
-      </c>
-      <c r="E77" t="s" s="383">
+      <c r="B77" t="s" s="384">
+        <v>12</v>
+      </c>
+      <c r="E77" t="s" s="385">
         <v>104</v>
       </c>
-      <c r="F77" t="s" s="384">
-        <v>14</v>
-      </c>
-      <c r="H77" t="s" s="385">
+      <c r="F77" t="s" s="386">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s" s="387">
         <v>15</v>
       </c>
-      <c r="I77" t="s" s="386">
+      <c r="I77" t="s" s="388">
         <v>14</v>
       </c>
       <c r="J77"/>
@@ -3775,19 +3786,19 @@
       <c r="A78" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="B78" t="s" s="388">
-        <v>16</v>
-      </c>
-      <c r="E78" t="s" s="389">
+      <c r="B78" t="s" s="390">
+        <v>16</v>
+      </c>
+      <c r="E78" t="s" s="391">
         <v>13</v>
       </c>
-      <c r="G78" t="s" s="390">
-        <v>14</v>
-      </c>
-      <c r="H78" t="s" s="391">
-        <v>12</v>
-      </c>
-      <c r="I78" t="s" s="392">
+      <c r="G78" t="s" s="392">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s" s="393">
+        <v>12</v>
+      </c>
+      <c r="I78" t="s" s="394">
         <v>14</v>
       </c>
       <c r="J78"/>
@@ -3796,16 +3807,16 @@
       <c r="A79" t="s" s="1">
         <v>106</v>
       </c>
-      <c r="B79" t="s" s="394">
-        <v>16</v>
-      </c>
-      <c r="C79" t="s" s="395">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s" s="396">
+      <c r="B79" t="s" s="396">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s" s="397">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s" s="398">
         <v>27</v>
       </c>
-      <c r="I79" t="s" s="397">
+      <c r="I79" t="s" s="399">
         <v>14</v>
       </c>
       <c r="J79"/>
@@ -3814,16 +3825,16 @@
       <c r="A80" t="s" s="1">
         <v>107</v>
       </c>
-      <c r="B80" t="s" s="399">
-        <v>12</v>
-      </c>
-      <c r="E80" t="s" s="400">
-        <v>14</v>
-      </c>
-      <c r="H80" t="s" s="401">
+      <c r="B80" t="s" s="401">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s" s="402">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s" s="403">
         <v>15</v>
       </c>
-      <c r="I80" t="s" s="402">
+      <c r="I80" t="s" s="404">
         <v>14</v>
       </c>
       <c r="J80"/>
@@ -3832,16 +3843,16 @@
       <c r="A81" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="B81" t="s" s="404">
-        <v>12</v>
-      </c>
-      <c r="E81" t="s" s="405">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s" s="406">
-        <v>12</v>
-      </c>
-      <c r="I81" t="s" s="407">
+      <c r="B81" t="s" s="406">
+        <v>12</v>
+      </c>
+      <c r="E81" t="s" s="407">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s" s="408">
+        <v>12</v>
+      </c>
+      <c r="I81" t="s" s="409">
         <v>14</v>
       </c>
       <c r="J81" t="s">
@@ -3852,13 +3863,13 @@
       <c r="A82" t="s" s="1">
         <v>110</v>
       </c>
-      <c r="B82" t="s" s="409">
-        <v>12</v>
-      </c>
-      <c r="E82" t="s" s="410">
-        <v>14</v>
-      </c>
-      <c r="I82" t="s" s="411">
+      <c r="B82" t="s" s="411">
+        <v>12</v>
+      </c>
+      <c r="E82" t="s" s="412">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s" s="413">
         <v>14</v>
       </c>
       <c r="J82"/>
@@ -3867,13 +3878,13 @@
       <c r="A83" t="s" s="1">
         <v>111</v>
       </c>
-      <c r="B83" t="s" s="413">
-        <v>12</v>
-      </c>
-      <c r="E83" t="s" s="414">
-        <v>14</v>
-      </c>
-      <c r="I83" t="s" s="415">
+      <c r="B83" t="s" s="415">
+        <v>12</v>
+      </c>
+      <c r="E83" t="s" s="416">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s" s="417">
         <v>14</v>
       </c>
       <c r="J83"/>
@@ -3882,16 +3893,16 @@
       <c r="A84" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="B84" t="s" s="417">
-        <v>12</v>
-      </c>
-      <c r="D84" t="s" s="418">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s" s="419">
-        <v>12</v>
-      </c>
-      <c r="I84" t="s" s="420">
+      <c r="B84" t="s" s="419">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s" s="420">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s" s="421">
+        <v>12</v>
+      </c>
+      <c r="I84" t="s" s="422">
         <v>16</v>
       </c>
       <c r="J84" t="s">
@@ -3902,19 +3913,19 @@
       <c r="A85" t="s" s="1">
         <v>114</v>
       </c>
-      <c r="B85" t="s" s="422">
-        <v>12</v>
-      </c>
-      <c r="C85" t="s" s="423">
-        <v>16</v>
-      </c>
-      <c r="D85" t="s" s="424">
-        <v>14</v>
-      </c>
-      <c r="H85" t="s" s="425">
-        <v>16</v>
-      </c>
-      <c r="I85" t="s" s="426">
+      <c r="B85" t="s" s="424">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s" s="425">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s" s="426">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s" s="427">
+        <v>16</v>
+      </c>
+      <c r="I85" t="s" s="428">
         <v>14</v>
       </c>
       <c r="J85"/>
@@ -3923,16 +3934,16 @@
       <c r="A86" t="s" s="1">
         <v>115</v>
       </c>
-      <c r="B86" t="s" s="428">
+      <c r="B86" t="s" s="430">
         <v>13</v>
       </c>
-      <c r="D86" t="s" s="429">
-        <v>14</v>
-      </c>
-      <c r="H86" t="s" s="430">
+      <c r="D86" t="s" s="431">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s" s="432">
         <v>15</v>
       </c>
-      <c r="I86" t="s" s="431">
+      <c r="I86" t="s" s="433">
         <v>14</v>
       </c>
       <c r="J86"/>
@@ -3941,16 +3952,16 @@
       <c r="A87" t="s" s="1">
         <v>116</v>
       </c>
-      <c r="B87" t="s" s="433">
-        <v>12</v>
-      </c>
-      <c r="G87" t="s" s="434">
-        <v>14</v>
-      </c>
-      <c r="H87" t="s" s="435">
+      <c r="B87" t="s" s="435">
+        <v>12</v>
+      </c>
+      <c r="G87" t="s" s="436">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s" s="437">
         <v>15</v>
       </c>
-      <c r="I87" t="s" s="436">
+      <c r="I87" t="s" s="438">
         <v>16</v>
       </c>
       <c r="J87"/>
@@ -3959,16 +3970,16 @@
       <c r="A88" t="s" s="1">
         <v>117</v>
       </c>
-      <c r="B88" t="s" s="438">
-        <v>16</v>
-      </c>
-      <c r="D88" t="s" s="439">
-        <v>14</v>
-      </c>
-      <c r="H88" t="s" s="440">
-        <v>16</v>
-      </c>
-      <c r="I88" t="s" s="441">
+      <c r="B88" t="s" s="440">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s" s="441">
+        <v>14</v>
+      </c>
+      <c r="H88" t="s" s="442">
+        <v>16</v>
+      </c>
+      <c r="I88" t="s" s="443">
         <v>14</v>
       </c>
       <c r="J88"/>
@@ -3977,16 +3988,16 @@
       <c r="A89" t="s" s="1">
         <v>118</v>
       </c>
-      <c r="B89" t="s" s="443">
-        <v>16</v>
-      </c>
-      <c r="E89" t="s" s="444">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s" s="445">
-        <v>16</v>
-      </c>
-      <c r="I89" t="s" s="446">
+      <c r="B89" t="s" s="445">
+        <v>16</v>
+      </c>
+      <c r="E89" t="s" s="446">
+        <v>14</v>
+      </c>
+      <c r="G89" t="s" s="447">
+        <v>16</v>
+      </c>
+      <c r="I89" t="s" s="448">
         <v>14</v>
       </c>
       <c r="J89"/>
@@ -3995,19 +4006,19 @@
       <c r="A90" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="B90" t="s" s="448">
-        <v>16</v>
-      </c>
-      <c r="E90" t="s" s="449">
-        <v>14</v>
-      </c>
-      <c r="F90" t="s" s="450">
-        <v>16</v>
-      </c>
-      <c r="H90" t="s" s="451">
-        <v>12</v>
-      </c>
-      <c r="I90" t="s" s="452">
+      <c r="B90" t="s" s="450">
+        <v>16</v>
+      </c>
+      <c r="E90" t="s" s="451">
+        <v>14</v>
+      </c>
+      <c r="F90" t="s" s="452">
+        <v>16</v>
+      </c>
+      <c r="H90" t="s" s="453">
+        <v>12</v>
+      </c>
+      <c r="I90" t="s" s="454">
         <v>14</v>
       </c>
       <c r="J90"/>
@@ -4016,16 +4027,16 @@
       <c r="A91" t="s" s="3">
         <v>120</v>
       </c>
-      <c r="B91" t="s" s="454">
-        <v>12</v>
-      </c>
-      <c r="F91" t="s" s="455">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s" s="456">
+      <c r="B91" t="s" s="456">
+        <v>12</v>
+      </c>
+      <c r="F91" t="s" s="457">
+        <v>14</v>
+      </c>
+      <c r="G91" t="s" s="458">
         <v>13</v>
       </c>
-      <c r="I91" t="s" s="457">
+      <c r="I91" t="s" s="459">
         <v>14</v>
       </c>
       <c r="J91"/>
@@ -4034,16 +4045,16 @@
       <c r="A92" t="s" s="1">
         <v>121</v>
       </c>
-      <c r="B92" t="s" s="459">
-        <v>16</v>
-      </c>
-      <c r="C92" t="s" s="460">
-        <v>14</v>
-      </c>
-      <c r="H92" t="s" s="461">
-        <v>16</v>
-      </c>
-      <c r="I92" t="s" s="462">
+      <c r="B92" t="s" s="461">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s" s="462">
+        <v>14</v>
+      </c>
+      <c r="H92" t="s" s="463">
+        <v>16</v>
+      </c>
+      <c r="I92" t="s" s="464">
         <v>14</v>
       </c>
       <c r="J92"/>
@@ -4052,16 +4063,16 @@
       <c r="A93" t="s" s="1">
         <v>122</v>
       </c>
-      <c r="B93" t="s" s="464">
-        <v>16</v>
-      </c>
-      <c r="F93" t="s" s="465">
-        <v>14</v>
-      </c>
-      <c r="H93" t="s" s="466">
-        <v>16</v>
-      </c>
-      <c r="I93" t="s" s="467">
+      <c r="B93" t="s" s="466">
+        <v>16</v>
+      </c>
+      <c r="F93" t="s" s="467">
+        <v>14</v>
+      </c>
+      <c r="H93" t="s" s="468">
+        <v>16</v>
+      </c>
+      <c r="I93" t="s" s="469">
         <v>14</v>
       </c>
       <c r="J93"/>
@@ -4070,16 +4081,16 @@
       <c r="A94" t="s" s="3">
         <v>123</v>
       </c>
-      <c r="B94" t="s" s="469">
-        <v>12</v>
-      </c>
-      <c r="E94" t="s" s="470">
-        <v>14</v>
-      </c>
-      <c r="H94" t="s" s="471">
+      <c r="B94" t="s" s="471">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s" s="472">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s" s="473">
         <v>15</v>
       </c>
-      <c r="I94" t="s" s="472">
+      <c r="I94" t="s" s="474">
         <v>14</v>
       </c>
       <c r="J94"/>
@@ -4088,37 +4099,37 @@
       <c r="A95" t="s" s="3">
         <v>124</v>
       </c>
-      <c r="B95" t="s" s="474">
-        <v>12</v>
-      </c>
-      <c r="E95" t="s" s="475">
+      <c r="B95" t="s" s="476">
+        <v>12</v>
+      </c>
+      <c r="E95" t="s" s="477">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="476">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s" s="477">
+      <c r="G95" t="s" s="478">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s" s="479">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="478">
-        <v>14</v>
-      </c>
-      <c r="I95"/>
+      <c r="I95" t="s" s="480">
+        <v>14</v>
+      </c>
+      <c r="J95"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="1">
         <v>125</v>
       </c>
-      <c r="B96" t="s" s="480">
-        <v>12</v>
-      </c>
-      <c r="C96" t="s" s="481">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s" s="482">
+      <c r="B96" t="s" s="482">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s" s="483">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s" s="484">
         <v>13</v>
       </c>
-      <c r="I96" t="s" s="483">
+      <c r="I96" t="s" s="485">
         <v>14</v>
       </c>
       <c r="J96"/>
@@ -4127,13 +4138,13 @@
       <c r="A97" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="B97" t="s" s="485">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s" s="486">
-        <v>12</v>
-      </c>
-      <c r="I97" t="s" s="487">
+      <c r="B97" t="s" s="487">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s" s="488">
+        <v>12</v>
+      </c>
+      <c r="I97" t="s" s="489">
         <v>16</v>
       </c>
       <c r="J97"/>
@@ -4142,16 +4153,16 @@
       <c r="A98" t="s" s="1">
         <v>127</v>
       </c>
-      <c r="B98" t="s" s="489">
-        <v>12</v>
-      </c>
-      <c r="E98" t="s" s="490">
-        <v>14</v>
-      </c>
-      <c r="H98" t="s" s="491">
-        <v>16</v>
-      </c>
-      <c r="I98" t="s" s="492">
+      <c r="B98" t="s" s="491">
+        <v>12</v>
+      </c>
+      <c r="E98" t="s" s="492">
+        <v>14</v>
+      </c>
+      <c r="H98" t="s" s="493">
+        <v>16</v>
+      </c>
+      <c r="I98" t="s" s="494">
         <v>14</v>
       </c>
       <c r="J98"/>
@@ -4160,10 +4171,10 @@
       <c r="A99" t="s" s="1">
         <v>128</v>
       </c>
-      <c r="B99" t="s" s="494">
-        <v>14</v>
-      </c>
-      <c r="I99" t="s" s="495">
+      <c r="B99" t="s" s="496">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s" s="497">
         <v>14</v>
       </c>
       <c r="J99"/>
@@ -4172,16 +4183,16 @@
       <c r="A100" t="s" s="3">
         <v>129</v>
       </c>
-      <c r="B100" t="s" s="497">
-        <v>12</v>
-      </c>
-      <c r="E100" t="s" s="498">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s" s="499">
-        <v>16</v>
-      </c>
-      <c r="I100" t="s" s="500">
+      <c r="B100" t="s" s="499">
+        <v>12</v>
+      </c>
+      <c r="E100" t="s" s="500">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s" s="501">
+        <v>16</v>
+      </c>
+      <c r="I100" t="s" s="502">
         <v>14</v>
       </c>
       <c r="J100"/>
@@ -4190,13 +4201,13 @@
       <c r="A101" t="s" s="1">
         <v>130</v>
       </c>
-      <c r="B101" t="s" s="502">
-        <v>16</v>
-      </c>
-      <c r="E101" t="s" s="503">
-        <v>14</v>
-      </c>
-      <c r="I101" t="s" s="504">
+      <c r="B101" t="s" s="504">
+        <v>16</v>
+      </c>
+      <c r="E101" t="s" s="505">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s" s="506">
         <v>14</v>
       </c>
       <c r="J101"/>
@@ -4205,13 +4216,13 @@
       <c r="A102" t="s" s="3">
         <v>131</v>
       </c>
-      <c r="B102" t="s" s="506">
-        <v>14</v>
-      </c>
-      <c r="H102" t="s" s="507">
+      <c r="B102" t="s" s="508">
+        <v>14</v>
+      </c>
+      <c r="H102" t="s" s="509">
         <v>15</v>
       </c>
-      <c r="I102" t="s" s="508">
+      <c r="I102" t="s" s="510">
         <v>14</v>
       </c>
       <c r="J102"/>
@@ -4220,13 +4231,13 @@
       <c r="A103" t="s" s="1">
         <v>132</v>
       </c>
-      <c r="B103" t="s" s="510">
-        <v>14</v>
-      </c>
-      <c r="H103" t="s" s="511">
+      <c r="B103" t="s" s="512">
+        <v>14</v>
+      </c>
+      <c r="H103" t="s" s="513">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="512">
+      <c r="I103" t="s" s="514">
         <v>14</v>
       </c>
       <c r="J103"/>
@@ -4235,16 +4246,16 @@
       <c r="A104" t="s" s="1">
         <v>133</v>
       </c>
-      <c r="B104" t="s" s="514">
-        <v>16</v>
-      </c>
-      <c r="F104" t="s" s="515">
-        <v>14</v>
-      </c>
-      <c r="H104" t="s" s="516">
+      <c r="B104" t="s" s="516">
+        <v>16</v>
+      </c>
+      <c r="F104" t="s" s="517">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s" s="518">
         <v>15</v>
       </c>
-      <c r="I104" t="s" s="517">
+      <c r="I104" t="s" s="519">
         <v>14</v>
       </c>
       <c r="J104"/>
@@ -4253,16 +4264,16 @@
       <c r="A105" t="s" s="3">
         <v>134</v>
       </c>
-      <c r="B105" t="s" s="519">
+      <c r="B105" t="s" s="521">
         <v>13</v>
       </c>
-      <c r="D105" t="s" s="520">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s" s="521">
-        <v>16</v>
-      </c>
-      <c r="I105" t="s" s="522">
+      <c r="D105" t="s" s="522">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s" s="523">
+        <v>16</v>
+      </c>
+      <c r="I105" t="s" s="524">
         <v>14</v>
       </c>
       <c r="J105"/>
@@ -4271,16 +4282,16 @@
       <c r="A106" t="s" s="1">
         <v>135</v>
       </c>
-      <c r="B106" t="s" s="524">
+      <c r="B106" t="s" s="526">
         <v>13</v>
       </c>
-      <c r="C106" t="s" s="525">
-        <v>14</v>
-      </c>
-      <c r="H106" t="s" s="526">
+      <c r="C106" t="s" s="527">
+        <v>14</v>
+      </c>
+      <c r="H106" t="s" s="528">
         <v>15</v>
       </c>
-      <c r="I106" t="s" s="527">
+      <c r="I106" t="s" s="529">
         <v>14</v>
       </c>
       <c r="J106"/>
@@ -4289,13 +4300,13 @@
       <c r="A107" t="s" s="3">
         <v>136</v>
       </c>
-      <c r="B107" t="s" s="529">
-        <v>14</v>
-      </c>
-      <c r="F107" t="s" s="530">
+      <c r="B107" t="s" s="531">
+        <v>14</v>
+      </c>
+      <c r="F107" t="s" s="532">
         <v>27</v>
       </c>
-      <c r="I107" t="s" s="531">
+      <c r="I107" t="s" s="533">
         <v>14</v>
       </c>
       <c r="J107" t="s">
@@ -4306,13 +4317,13 @@
       <c r="A108" t="s" s="1">
         <v>138</v>
       </c>
-      <c r="B108" t="s" s="533">
-        <v>14</v>
-      </c>
-      <c r="H108" t="s" s="534">
+      <c r="B108" t="s" s="535">
+        <v>14</v>
+      </c>
+      <c r="H108" t="s" s="536">
         <v>15</v>
       </c>
-      <c r="I108" t="s" s="535">
+      <c r="I108" t="s" s="537">
         <v>14</v>
       </c>
       <c r="J108"/>
@@ -4321,13 +4332,13 @@
       <c r="A109" t="s" s="1">
         <v>139</v>
       </c>
-      <c r="B109" t="s" s="537">
-        <v>12</v>
-      </c>
-      <c r="E109" t="s" s="538">
-        <v>14</v>
-      </c>
-      <c r="I109" t="s" s="539">
+      <c r="B109" t="s" s="539">
+        <v>12</v>
+      </c>
+      <c r="E109" t="s" s="540">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s" s="541">
         <v>14</v>
       </c>
       <c r="J109"/>
@@ -4336,16 +4347,16 @@
       <c r="A110" t="s" s="1">
         <v>140</v>
       </c>
-      <c r="B110" t="s" s="541">
-        <v>12</v>
-      </c>
-      <c r="G110" t="s" s="542">
-        <v>14</v>
-      </c>
-      <c r="H110" t="s" s="543">
+      <c r="B110" t="s" s="543">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s" s="544">
+        <v>14</v>
+      </c>
+      <c r="H110" t="s" s="545">
         <v>15</v>
       </c>
-      <c r="I110" t="s" s="544">
+      <c r="I110" t="s" s="546">
         <v>14</v>
       </c>
       <c r="J110"/>
@@ -4354,13 +4365,13 @@
       <c r="A111" t="s" s="1">
         <v>141</v>
       </c>
-      <c r="B111" t="s" s="546">
-        <v>14</v>
-      </c>
-      <c r="H111" t="s" s="547">
+      <c r="B111" t="s" s="548">
+        <v>14</v>
+      </c>
+      <c r="H111" t="s" s="549">
         <v>15</v>
       </c>
-      <c r="I111" t="s" s="548">
+      <c r="I111" t="s" s="550">
         <v>14</v>
       </c>
       <c r="J111"/>
@@ -4369,10 +4380,10 @@
       <c r="A112" t="s" s="1">
         <v>142</v>
       </c>
-      <c r="B112" t="s" s="550">
-        <v>14</v>
-      </c>
-      <c r="I112" t="s" s="551">
+      <c r="B112" t="s" s="552">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s" s="553">
         <v>14</v>
       </c>
       <c r="J112"/>
@@ -4381,13 +4392,13 @@
       <c r="A113" t="s" s="1">
         <v>143</v>
       </c>
-      <c r="B113" t="s" s="553">
-        <v>12</v>
-      </c>
-      <c r="E113" t="s" s="554">
-        <v>14</v>
-      </c>
-      <c r="I113" t="s" s="555">
+      <c r="B113" t="s" s="555">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s" s="556">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s" s="557">
         <v>14</v>
       </c>
       <c r="J113"/>
@@ -4396,16 +4407,16 @@
       <c r="A114" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="B114" t="s" s="557">
-        <v>12</v>
-      </c>
-      <c r="F114" t="s" s="558">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s" s="559">
-        <v>12</v>
-      </c>
-      <c r="I114" t="s" s="560">
+      <c r="B114" t="s" s="559">
+        <v>12</v>
+      </c>
+      <c r="F114" t="s" s="560">
+        <v>14</v>
+      </c>
+      <c r="G114" t="s" s="561">
+        <v>12</v>
+      </c>
+      <c r="I114" t="s" s="562">
         <v>14</v>
       </c>
       <c r="J114"/>
@@ -4414,16 +4425,16 @@
       <c r="A115" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="B115" t="s" s="562">
-        <v>12</v>
-      </c>
-      <c r="E115" t="s" s="563">
-        <v>78</v>
-      </c>
-      <c r="F115" t="s" s="564">
-        <v>12</v>
-      </c>
-      <c r="I115" t="s" s="565">
+      <c r="B115" t="s" s="564">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s" s="565">
+        <v>50</v>
+      </c>
+      <c r="F115" t="s" s="566">
+        <v>12</v>
+      </c>
+      <c r="I115" t="s" s="567">
         <v>14</v>
       </c>
       <c r="J115"/>
@@ -4432,16 +4443,16 @@
       <c r="A116" t="s" s="3">
         <v>146</v>
       </c>
-      <c r="B116" t="s" s="567">
-        <v>12</v>
-      </c>
-      <c r="F116" t="s" s="568">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s" s="569">
+      <c r="B116" t="s" s="569">
+        <v>12</v>
+      </c>
+      <c r="F116" t="s" s="570">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s" s="571">
         <v>13</v>
       </c>
-      <c r="I116" t="s" s="570">
+      <c r="I116" t="s" s="572">
         <v>14</v>
       </c>
       <c r="J116"/>
@@ -4450,19 +4461,19 @@
       <c r="A117" t="s" s="1">
         <v>147</v>
       </c>
-      <c r="B117" t="s" s="572">
-        <v>12</v>
-      </c>
-      <c r="F117" t="s" s="573">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s" s="574">
+      <c r="B117" t="s" s="574">
+        <v>12</v>
+      </c>
+      <c r="F117" t="s" s="575">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s" s="576">
         <v>23</v>
       </c>
-      <c r="H117" t="s" s="575">
+      <c r="H117" t="s" s="577">
         <v>15</v>
       </c>
-      <c r="I117" t="s" s="576">
+      <c r="I117" t="s" s="578">
         <v>14</v>
       </c>
       <c r="J117" t="s">
@@ -4526,7 +4537,8 @@
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="E30:G30"/>
-    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:H31"/>
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="E33:F33"/>
@@ -4638,6 +4650,7 @@
     <mergeCell ref="B94:D94"/>
     <mergeCell ref="E94:G94"/>
     <mergeCell ref="B95:D95"/>
+    <mergeCell ref="E95:F95"/>
     <mergeCell ref="C96:F96"/>
     <mergeCell ref="G96:H96"/>
     <mergeCell ref="B97:F97"/>

--- a/tweaks.xlsx
+++ b/tweaks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="151">
   <si>
     <t>Name</t>
   </si>
@@ -170,10 +170,13 @@
     <t>DismissProgress</t>
   </si>
   <si>
+    <t>EModeji</t>
+  </si>
+  <si>
     <t>Effects+</t>
   </si>
   <si>
-    <t>Emoji10 (iOS 10.0-10.1)</t>
+    <t>Emoji10 (iOS 10)</t>
   </si>
   <si>
     <t>Emoji10 (iOS 6.0-8.2)</t>
@@ -185,7 +188,7 @@
     <t>8.3+</t>
   </si>
   <si>
-    <t>Emoji10 (iOS 9.0+)</t>
+    <t>Emoji10 (iOS 9.0-9.3)</t>
   </si>
   <si>
     <t>Emoji83</t>
@@ -610,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="578">
+  <cellXfs count="573">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
@@ -1071,6 +1074,18 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1326,9 +1341,6 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1581,7 +1593,61 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
@@ -1626,19 +1692,94 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
@@ -1650,7 +1791,13 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
@@ -1701,55 +1848,433 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
@@ -1764,19 +2289,19 @@
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
@@ -1788,550 +2313,13 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
@@ -2343,7 +2331,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2932,7 +2920,7 @@
       <c r="J32"/>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="1">
+      <c r="A33" t="s" s="3">
         <v>52</v>
       </c>
       <c r="B33" t="s" s="154">
@@ -2941,23 +2929,23 @@
       <c r="E33" t="s" s="155">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="156">
-        <v>16</v>
-      </c>
-      <c r="I33" t="s" s="157">
+      <c r="I33" t="s" s="156">
         <v>14</v>
       </c>
       <c r="J33"/>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="3">
+      <c r="A34" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="B34" t="s" s="159">
-        <v>12</v>
-      </c>
-      <c r="H34" t="s" s="160">
-        <v>14</v>
+      <c r="B34" t="s" s="158">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s" s="159">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s" s="160">
+        <v>16</v>
       </c>
       <c r="I34" t="s" s="161">
         <v>14</v>
@@ -2971,16 +2959,10 @@
       <c r="B35" t="s" s="163">
         <v>12</v>
       </c>
-      <c r="C35" t="s" s="164">
-        <v>16</v>
-      </c>
-      <c r="D35" t="s" s="165">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s" s="166">
-        <v>27</v>
-      </c>
-      <c r="I35" t="s" s="167">
+      <c r="H35" t="s" s="164">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s" s="165">
         <v>14</v>
       </c>
       <c r="J35"/>
@@ -2989,58 +2971,55 @@
       <c r="A36" t="s" s="3">
         <v>55</v>
       </c>
-      <c r="B36" t="s" s="169">
-        <v>12</v>
-      </c>
-      <c r="F36" t="s" s="170">
-        <v>56</v>
-      </c>
-      <c r="G36" t="s" s="171">
+      <c r="B36" t="s" s="167">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s" s="168">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s" s="169">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s" s="170">
         <v>27</v>
       </c>
-      <c r="I36" t="s" s="172">
+      <c r="I36" t="s" s="171">
         <v>14</v>
       </c>
       <c r="J36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s" s="173">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s" s="174">
         <v>57</v>
       </c>
-      <c r="B37" t="s" s="174">
-        <v>12</v>
-      </c>
       <c r="G37" t="s" s="175">
-        <v>14</v>
-      </c>
-      <c r="H37" t="s" s="176">
         <v>27</v>
       </c>
-      <c r="I37" t="s" s="177">
+      <c r="I37" t="s" s="176">
         <v>14</v>
       </c>
       <c r="J37"/>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="3">
         <v>58</v>
       </c>
-      <c r="B38" t="s" s="179">
-        <v>12</v>
-      </c>
-      <c r="C38" t="s" s="180">
-        <v>16</v>
-      </c>
-      <c r="D38" t="s" s="181">
-        <v>23</v>
-      </c>
-      <c r="E38" t="s" s="182">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s" s="183">
-        <v>12</v>
-      </c>
-      <c r="I38" t="s" s="184">
+      <c r="B38" t="s" s="178">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s" s="179">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s" s="180">
+        <v>27</v>
+      </c>
+      <c r="I38" t="s" s="181">
         <v>14</v>
       </c>
       <c r="J38"/>
@@ -3049,40 +3028,43 @@
       <c r="A39" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="B39" t="s" s="186">
-        <v>12</v>
-      </c>
-      <c r="F39" t="s" s="187">
-        <v>56</v>
-      </c>
-      <c r="G39" t="s" s="188">
-        <v>14</v>
-      </c>
-      <c r="H39" t="s" s="189">
-        <v>12</v>
-      </c>
-      <c r="I39" t="s" s="190">
+      <c r="B39" t="s" s="183">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s" s="184">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s" s="185">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s" s="186">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s" s="187">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s" s="188">
         <v>14</v>
       </c>
       <c r="J39"/>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="3">
+      <c r="A40" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="B40" t="s" s="192">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s" s="193">
-        <v>13</v>
-      </c>
-      <c r="D40" t="s" s="194">
-        <v>14</v>
-      </c>
-      <c r="H40" t="s" s="195">
-        <v>13</v>
-      </c>
-      <c r="I40" t="s" s="196">
+      <c r="B40" t="s" s="190">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s" s="191">
+        <v>57</v>
+      </c>
+      <c r="G40" t="s" s="192">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s" s="193">
+        <v>12</v>
+      </c>
+      <c r="I40" t="s" s="194">
         <v>14</v>
       </c>
       <c r="J40"/>
@@ -3091,22 +3073,19 @@
       <c r="A41" t="s" s="3">
         <v>61</v>
       </c>
-      <c r="B41" t="s" s="198">
-        <v>12</v>
-      </c>
-      <c r="C41" t="s" s="199">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s" s="200">
-        <v>23</v>
-      </c>
-      <c r="E41" t="s" s="201">
-        <v>14</v>
-      </c>
-      <c r="H41" t="s" s="202">
+      <c r="B41" t="s" s="196">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s" s="197">
         <v>13</v>
       </c>
-      <c r="I41" t="s" s="203">
+      <c r="D41" t="s" s="198">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s" s="199">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s" s="200">
         <v>14</v>
       </c>
       <c r="J41"/>
@@ -3115,43 +3094,46 @@
       <c r="A42" t="s" s="3">
         <v>62</v>
       </c>
-      <c r="B42" t="s" s="205">
-        <v>12</v>
-      </c>
-      <c r="C42" t="s" s="206">
-        <v>16</v>
-      </c>
-      <c r="D42" t="s" s="207">
-        <v>14</v>
-      </c>
-      <c r="F42" t="s" s="208">
-        <v>63</v>
-      </c>
-      <c r="G42" t="s" s="209">
-        <v>27</v>
-      </c>
-      <c r="I42" t="s" s="210">
+      <c r="B42" t="s" s="202">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s" s="203">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s" s="204">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s" s="205">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s" s="206">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s" s="207">
         <v>14</v>
       </c>
       <c r="J42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s" s="209">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s" s="210">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s" s="211">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s" s="212">
         <v>64</v>
       </c>
-      <c r="B43" t="s" s="212">
-        <v>12</v>
-      </c>
-      <c r="C43" t="s" s="213">
-        <v>16</v>
-      </c>
-      <c r="D43" t="s" s="214">
-        <v>14</v>
-      </c>
-      <c r="H43" t="s" s="215">
+      <c r="G43" t="s" s="213">
         <v>27</v>
       </c>
-      <c r="I43" t="s" s="216">
+      <c r="I43" t="s" s="214">
         <v>14</v>
       </c>
       <c r="J43"/>
@@ -3160,72 +3142,81 @@
       <c r="A44" t="s" s="3">
         <v>65</v>
       </c>
-      <c r="B44" t="s" s="218">
-        <v>12</v>
-      </c>
-      <c r="C44" t="s" s="219">
-        <v>16</v>
-      </c>
-      <c r="D44" t="s" s="220">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s" s="221">
+      <c r="B44" t="s" s="216">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s" s="217">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s" s="218">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s" s="219">
+        <v>27</v>
+      </c>
+      <c r="I44" t="s" s="220">
+        <v>14</v>
+      </c>
+      <c r="J44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="3">
         <v>66</v>
       </c>
-      <c r="H44" t="s" s="222">
+      <c r="B45" t="s" s="222">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s" s="223">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s" s="224">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s" s="225">
+        <v>67</v>
+      </c>
+      <c r="H45" t="s" s="226">
         <v>27</v>
       </c>
-      <c r="I44" t="s" s="223">
-        <v>14</v>
-      </c>
-      <c r="J44"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="B45" t="s" s="225">
-        <v>14</v>
-      </c>
-      <c r="H45" t="s" s="226">
-        <v>12</v>
-      </c>
       <c r="I45" t="s" s="227">
         <v>14</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="1">
+      <c r="B46" t="s" s="229">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s" s="230">
+        <v>12</v>
+      </c>
+      <c r="I46" t="s" s="231">
+        <v>14</v>
+      </c>
+      <c r="J46" t="s">
         <v>69</v>
       </c>
-      <c r="B46" t="s" s="229">
-        <v>12</v>
-      </c>
-      <c r="C46" t="s" s="230">
-        <v>13</v>
-      </c>
-      <c r="D46" t="s" s="231">
-        <v>14</v>
-      </c>
-      <c r="H46" t="s" s="232">
-        <v>15</v>
-      </c>
-      <c r="I46" t="s" s="233">
-        <v>14</v>
-      </c>
-      <c r="J46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="B47" t="s" s="235">
-        <v>14</v>
-      </c>
-      <c r="I47" t="s" s="236">
+      <c r="B47" t="s" s="233">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s" s="234">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s" s="235">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s" s="236">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s" s="237">
         <v>14</v>
       </c>
       <c r="J47"/>
@@ -3234,58 +3225,46 @@
       <c r="A48" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="B48" t="s" s="238">
-        <v>12</v>
-      </c>
-      <c r="C48" t="s" s="239">
-        <v>16</v>
-      </c>
-      <c r="D48" t="s" s="240">
-        <v>14</v>
-      </c>
-      <c r="H48" t="s" s="241">
-        <v>16</v>
-      </c>
-      <c r="I48" t="s" s="242">
+      <c r="B48" t="s" s="239">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s" s="240">
         <v>14</v>
       </c>
       <c r="J48"/>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="B49" t="s" s="244">
-        <v>12</v>
-      </c>
-      <c r="F49" t="s" s="245">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s" s="246">
-        <v>12</v>
-      </c>
-      <c r="I49" t="s" s="247">
+      <c r="B49" t="s" s="242">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s" s="243">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s" s="244">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s" s="245">
         <v>14</v>
       </c>
       <c r="J49"/>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="1">
+      <c r="A50" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="B50" t="s" s="249">
-        <v>12</v>
-      </c>
-      <c r="C50" t="s" s="250">
-        <v>16</v>
-      </c>
-      <c r="D50" t="s" s="251">
-        <v>14</v>
-      </c>
-      <c r="H50" t="s" s="252">
-        <v>16</v>
-      </c>
-      <c r="I50" t="s" s="253">
+      <c r="B50" t="s" s="247">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s" s="248">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s" s="249">
+        <v>12</v>
+      </c>
+      <c r="I50" t="s" s="250">
         <v>14</v>
       </c>
       <c r="J50"/>
@@ -3294,81 +3273,84 @@
       <c r="A51" t="s" s="1">
         <v>74</v>
       </c>
-      <c r="B51" t="s" s="255">
-        <v>14</v>
-      </c>
-      <c r="H51" t="s" s="256">
-        <v>16</v>
-      </c>
-      <c r="I51" t="s" s="257">
-        <v>14</v>
-      </c>
-      <c r="J51" t="s">
+      <c r="B51" t="s" s="252">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s" s="253">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s" s="254">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s" s="255">
+        <v>16</v>
+      </c>
+      <c r="I51" t="s" s="256">
+        <v>14</v>
+      </c>
+      <c r="J51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="B52" t="s" s="258">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s" s="259">
+        <v>16</v>
+      </c>
+      <c r="I52" t="s" s="260">
+        <v>14</v>
+      </c>
+      <c r="J52" t="s">
         <v>76</v>
       </c>
-      <c r="B52" t="s" s="259">
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B53" t="s" s="262">
         <v>13</v>
       </c>
-      <c r="C52" t="s" s="260">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s" s="261">
-        <v>12</v>
-      </c>
-      <c r="I52" t="s" s="262">
-        <v>14</v>
-      </c>
-      <c r="J52"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="1">
-        <v>77</v>
-      </c>
-      <c r="B53" t="s" s="264">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s" s="265">
-        <v>14</v>
-      </c>
-      <c r="I53" t="s" s="266">
+      <c r="C53" t="s" s="263">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s" s="264">
+        <v>12</v>
+      </c>
+      <c r="I53" t="s" s="265">
         <v>14</v>
       </c>
       <c r="J53"/>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="3">
+      <c r="A54" t="s" s="1">
         <v>78</v>
       </c>
-      <c r="B54" t="s" s="268">
-        <v>16</v>
-      </c>
-      <c r="F54" t="s" s="269">
-        <v>14</v>
-      </c>
-      <c r="I54" t="s" s="270">
+      <c r="B54" t="s" s="267">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s" s="268">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s" s="269">
         <v>14</v>
       </c>
       <c r="J54"/>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="3">
         <v>79</v>
       </c>
-      <c r="B55" t="s" s="272">
-        <v>12</v>
-      </c>
-      <c r="E55" t="s" s="273">
-        <v>50</v>
-      </c>
-      <c r="F55" t="s" s="274">
-        <v>12</v>
-      </c>
-      <c r="I55" t="s" s="275">
+      <c r="B55" t="s" s="271">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s" s="272">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s" s="273">
         <v>14</v>
       </c>
       <c r="J55"/>
@@ -3377,49 +3359,49 @@
       <c r="A56" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="B56" t="s" s="277">
-        <v>12</v>
-      </c>
-      <c r="F56" t="s" s="278">
-        <v>14</v>
-      </c>
-      <c r="H56" t="s" s="279">
-        <v>12</v>
-      </c>
-      <c r="I56" t="s" s="280">
+      <c r="B56" t="s" s="275">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s" s="276">
+        <v>50</v>
+      </c>
+      <c r="F56" t="s" s="277">
+        <v>12</v>
+      </c>
+      <c r="I56" t="s" s="278">
         <v>14</v>
       </c>
       <c r="J56"/>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="3">
+      <c r="A57" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="B57" t="s" s="282">
-        <v>12</v>
-      </c>
-      <c r="E57" t="s" s="283">
-        <v>14</v>
-      </c>
-      <c r="I57" t="s" s="284">
+      <c r="B57" t="s" s="280">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s" s="281">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s" s="282">
+        <v>12</v>
+      </c>
+      <c r="I57" t="s" s="283">
         <v>14</v>
       </c>
       <c r="J57"/>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="1">
+      <c r="A58" t="s" s="3">
         <v>82</v>
       </c>
-      <c r="B58" t="s" s="286">
-        <v>12</v>
-      </c>
-      <c r="C58" t="s" s="287">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s" s="288">
-        <v>13</v>
-      </c>
-      <c r="I58" t="s" s="289">
+      <c r="B58" t="s" s="285">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s" s="286">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s" s="287">
         <v>14</v>
       </c>
       <c r="J58"/>
@@ -3428,13 +3410,16 @@
       <c r="A59" t="s" s="1">
         <v>83</v>
       </c>
-      <c r="B59" t="s" s="291">
-        <v>12</v>
-      </c>
-      <c r="E59" t="s" s="292">
-        <v>14</v>
-      </c>
-      <c r="I59" t="s" s="293">
+      <c r="B59" t="s" s="289">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s" s="290">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s" s="291">
+        <v>13</v>
+      </c>
+      <c r="I59" t="s" s="292">
         <v>14</v>
       </c>
       <c r="J59"/>
@@ -3443,13 +3428,13 @@
       <c r="A60" t="s" s="1">
         <v>84</v>
       </c>
-      <c r="B60" t="s" s="295">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s" s="296">
-        <v>14</v>
-      </c>
-      <c r="I60" t="s" s="297">
+      <c r="B60" t="s" s="294">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s" s="295">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s" s="296">
         <v>14</v>
       </c>
       <c r="J60"/>
@@ -3458,16 +3443,13 @@
       <c r="A61" t="s" s="1">
         <v>85</v>
       </c>
-      <c r="B61" t="s" s="299">
-        <v>12</v>
-      </c>
-      <c r="D61" t="s" s="300">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s" s="301">
-        <v>16</v>
-      </c>
-      <c r="I61" t="s" s="302">
+      <c r="B61" t="s" s="298">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s" s="299">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s" s="300">
         <v>14</v>
       </c>
       <c r="J61"/>
@@ -3476,19 +3458,16 @@
       <c r="A62" t="s" s="1">
         <v>86</v>
       </c>
-      <c r="B62" t="s" s="304">
-        <v>12</v>
-      </c>
-      <c r="D62" t="s" s="305">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s" s="306">
-        <v>15</v>
-      </c>
-      <c r="H62" t="s" s="307">
-        <v>27</v>
-      </c>
-      <c r="I62" t="s" s="308">
+      <c r="B62" t="s" s="302">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s" s="303">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s" s="304">
+        <v>16</v>
+      </c>
+      <c r="I62" t="s" s="305">
         <v>14</v>
       </c>
       <c r="J62"/>
@@ -3497,13 +3476,19 @@
       <c r="A63" t="s" s="1">
         <v>87</v>
       </c>
-      <c r="B63" t="s" s="310">
-        <v>16</v>
-      </c>
-      <c r="C63" t="s" s="311">
-        <v>14</v>
-      </c>
-      <c r="I63" t="s" s="312">
+      <c r="B63" t="s" s="307">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s" s="308">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s" s="309">
+        <v>15</v>
+      </c>
+      <c r="H63" t="s" s="310">
+        <v>27</v>
+      </c>
+      <c r="I63" t="s" s="311">
         <v>14</v>
       </c>
       <c r="J63"/>
@@ -3512,16 +3497,13 @@
       <c r="A64" t="s" s="1">
         <v>88</v>
       </c>
-      <c r="B64" t="s" s="314">
-        <v>12</v>
-      </c>
-      <c r="F64" t="s" s="315">
-        <v>14</v>
-      </c>
-      <c r="H64" t="s" s="316">
-        <v>15</v>
-      </c>
-      <c r="I64" t="s" s="317">
+      <c r="B64" t="s" s="313">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s" s="314">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s" s="315">
         <v>14</v>
       </c>
       <c r="J64"/>
@@ -3530,16 +3512,16 @@
       <c r="A65" t="s" s="1">
         <v>89</v>
       </c>
-      <c r="B65" t="s" s="319">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s" s="320">
-        <v>14</v>
-      </c>
-      <c r="H65" t="s" s="321">
-        <v>27</v>
-      </c>
-      <c r="I65" t="s" s="322">
+      <c r="B65" t="s" s="317">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s" s="318">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s" s="319">
+        <v>15</v>
+      </c>
+      <c r="I65" t="s" s="320">
         <v>14</v>
       </c>
       <c r="J65"/>
@@ -3548,52 +3530,49 @@
       <c r="A66" t="s" s="1">
         <v>90</v>
       </c>
-      <c r="B66" t="s" s="324">
-        <v>12</v>
-      </c>
-      <c r="E66" t="s" s="325">
-        <v>14</v>
-      </c>
-      <c r="H66" t="s" s="326">
-        <v>16</v>
-      </c>
-      <c r="I66" t="s" s="327">
+      <c r="B66" t="s" s="322">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s" s="323">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s" s="324">
+        <v>27</v>
+      </c>
+      <c r="I66" t="s" s="325">
         <v>14</v>
       </c>
       <c r="J66"/>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="1">
         <v>91</v>
       </c>
-      <c r="B67" t="s" s="329">
-        <v>12</v>
-      </c>
-      <c r="E67" t="s" s="330">
-        <v>14</v>
-      </c>
-      <c r="F67" t="s" s="331">
-        <v>12</v>
-      </c>
-      <c r="I67" t="s" s="332">
+      <c r="B67" t="s" s="327">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s" s="328">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s" s="329">
         <v>14</v>
       </c>
       <c r="J67"/>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="1">
+      <c r="A68" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="B68" t="s" s="334">
-        <v>12</v>
-      </c>
-      <c r="E68" t="s" s="335">
-        <v>14</v>
-      </c>
-      <c r="H68" t="s" s="336">
-        <v>15</v>
-      </c>
-      <c r="I68" t="s" s="337">
+      <c r="B68" t="s" s="331">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s" s="332">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s" s="333">
+        <v>12</v>
+      </c>
+      <c r="I68" t="s" s="334">
         <v>14</v>
       </c>
       <c r="J68"/>
@@ -3602,90 +3581,87 @@
       <c r="A69" t="s" s="1">
         <v>93</v>
       </c>
-      <c r="B69" t="s" s="339">
-        <v>12</v>
-      </c>
-      <c r="F69" t="s" s="340">
-        <v>14</v>
-      </c>
-      <c r="H69" t="s" s="341">
-        <v>16</v>
-      </c>
-      <c r="I69" t="s" s="342">
+      <c r="B69" t="s" s="336">
+        <v>12</v>
+      </c>
+      <c r="E69" t="s" s="337">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s" s="338">
         <v>14</v>
       </c>
       <c r="J69"/>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="3">
+      <c r="A70" t="s" s="1">
         <v>94</v>
       </c>
-      <c r="B70" t="s" s="344">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s" s="345">
-        <v>14</v>
-      </c>
-      <c r="H70" t="s" s="346">
+      <c r="B70" t="s" s="340">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s" s="341">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s" s="342">
+        <v>16</v>
+      </c>
+      <c r="I70" t="s" s="343">
+        <v>14</v>
+      </c>
+      <c r="J70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="3">
+        <v>95</v>
+      </c>
+      <c r="B71" t="s" s="345">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s" s="346">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s" s="347">
         <v>13</v>
       </c>
-      <c r="I70" t="s" s="347">
-        <v>14</v>
-      </c>
-      <c r="J70"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B71" t="s" s="349">
-        <v>12</v>
-      </c>
-      <c r="C71" t="s" s="350">
-        <v>14</v>
-      </c>
-      <c r="F71" t="s" s="351">
-        <v>12</v>
-      </c>
-      <c r="I71" t="s" s="352">
-        <v>14</v>
-      </c>
-      <c r="J71" t="s">
+      <c r="I71" t="s" s="348">
+        <v>14</v>
+      </c>
+      <c r="J71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
         <v>96</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="1">
+      <c r="B72" t="s" s="350">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s" s="351">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s" s="352">
+        <v>12</v>
+      </c>
+      <c r="I72" t="s" s="353">
+        <v>14</v>
+      </c>
+      <c r="J72" t="s">
         <v>97</v>
       </c>
-      <c r="B72" t="s" s="354">
-        <v>12</v>
-      </c>
-      <c r="F72" t="s" s="355">
-        <v>14</v>
-      </c>
-      <c r="H72" t="s" s="356">
-        <v>15</v>
-      </c>
-      <c r="I72" t="s" s="357">
-        <v>14</v>
-      </c>
-      <c r="J72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="1">
         <v>98</v>
       </c>
-      <c r="B73" t="s" s="359">
-        <v>12</v>
-      </c>
-      <c r="C73" t="s" s="360">
-        <v>14</v>
-      </c>
-      <c r="H73" t="s" s="361">
-        <v>27</v>
-      </c>
-      <c r="I73" t="s" s="362">
+      <c r="B73" t="s" s="355">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s" s="356">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s" s="357">
+        <v>15</v>
+      </c>
+      <c r="I73" t="s" s="358">
         <v>14</v>
       </c>
       <c r="J73"/>
@@ -3694,34 +3670,31 @@
       <c r="A74" t="s" s="1">
         <v>99</v>
       </c>
-      <c r="B74" t="s" s="364">
-        <v>12</v>
-      </c>
-      <c r="F74" t="s" s="365">
-        <v>14</v>
-      </c>
-      <c r="H74" t="s" s="366">
-        <v>16</v>
-      </c>
-      <c r="I74" t="s" s="367">
+      <c r="B74" t="s" s="360">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s" s="361">
+        <v>14</v>
+      </c>
+      <c r="H74" t="s" s="362">
+        <v>27</v>
+      </c>
+      <c r="I74" t="s" s="363">
         <v>14</v>
       </c>
       <c r="J74"/>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="1">
         <v>100</v>
       </c>
-      <c r="B75" t="s" s="369">
-        <v>12</v>
-      </c>
-      <c r="C75" t="s" s="370">
-        <v>14</v>
-      </c>
-      <c r="F75" t="s" s="371">
-        <v>12</v>
-      </c>
-      <c r="I75" t="s" s="372">
+      <c r="B75" t="s" s="365">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s" s="366">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s" s="367">
         <v>14</v>
       </c>
       <c r="J75"/>
@@ -3730,99 +3703,99 @@
       <c r="A76" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="B76" t="s" s="374">
-        <v>12</v>
-      </c>
-      <c r="F76" t="s" s="375">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s" s="376">
-        <v>16</v>
-      </c>
-      <c r="H76" t="s" s="377">
-        <v>12</v>
-      </c>
-      <c r="I76" t="s" s="378">
-        <v>14</v>
-      </c>
-      <c r="J76" t="s">
+      <c r="B76" t="s" s="369">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s" s="370">
+        <v>14</v>
+      </c>
+      <c r="F76" t="s" s="371">
+        <v>12</v>
+      </c>
+      <c r="I76" t="s" s="372">
+        <v>14</v>
+      </c>
+      <c r="J76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
         <v>102</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="3">
+      <c r="B77" t="s" s="374">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s" s="375">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s" s="376">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s" s="377">
+        <v>12</v>
+      </c>
+      <c r="I77" t="s" s="378">
+        <v>14</v>
+      </c>
+      <c r="J77" t="s">
         <v>103</v>
       </c>
-      <c r="B77" t="s" s="380">
-        <v>12</v>
-      </c>
-      <c r="F77" t="s" s="381">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s" s="382">
-        <v>16</v>
-      </c>
-      <c r="I77" t="s" s="383">
-        <v>14</v>
-      </c>
-      <c r="J77"/>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="1">
+      <c r="A78" t="s" s="3">
         <v>104</v>
       </c>
-      <c r="B78" t="s" s="385">
-        <v>12</v>
-      </c>
-      <c r="E78" t="s" s="386">
+      <c r="B78" t="s" s="380">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s" s="381">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s" s="382">
+        <v>16</v>
+      </c>
+      <c r="I78" t="s" s="383">
+        <v>14</v>
+      </c>
+      <c r="J78"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="1">
         <v>105</v>
       </c>
-      <c r="F78" t="s" s="387">
-        <v>14</v>
-      </c>
-      <c r="H78" t="s" s="388">
+      <c r="B79" t="s" s="385">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s" s="386">
+        <v>106</v>
+      </c>
+      <c r="F79" t="s" s="387">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s" s="388">
         <v>15</v>
       </c>
-      <c r="I78" t="s" s="389">
-        <v>14</v>
-      </c>
-      <c r="J78"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B79" t="s" s="391">
-        <v>16</v>
-      </c>
-      <c r="E79" t="s" s="392">
+      <c r="I79" t="s" s="389">
+        <v>14</v>
+      </c>
+      <c r="J79"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B80" t="s" s="391">
+        <v>16</v>
+      </c>
+      <c r="E80" t="s" s="392">
         <v>13</v>
       </c>
-      <c r="G79" t="s" s="393">
-        <v>14</v>
-      </c>
-      <c r="H79" t="s" s="394">
-        <v>12</v>
-      </c>
-      <c r="I79" t="s" s="395">
-        <v>14</v>
-      </c>
-      <c r="J79"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="1">
-        <v>107</v>
-      </c>
-      <c r="B80" t="s" s="397">
-        <v>16</v>
-      </c>
-      <c r="C80" t="s" s="398">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s" s="399">
-        <v>27</v>
-      </c>
-      <c r="I80" t="s" s="400">
+      <c r="G80" t="s" s="393">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s" s="394">
+        <v>12</v>
+      </c>
+      <c r="I80" t="s" s="395">
         <v>14</v>
       </c>
       <c r="J80"/>
@@ -3831,125 +3804,125 @@
       <c r="A81" t="s" s="1">
         <v>108</v>
       </c>
-      <c r="B81" t="s" s="402">
-        <v>12</v>
-      </c>
-      <c r="E81" t="s" s="403">
-        <v>14</v>
-      </c>
-      <c r="H81" t="s" s="404">
+      <c r="B81" t="s" s="397">
+        <v>16</v>
+      </c>
+      <c r="C81" t="s" s="398">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s" s="399">
+        <v>27</v>
+      </c>
+      <c r="I81" t="s" s="400">
+        <v>14</v>
+      </c>
+      <c r="J81"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="B82" t="s" s="402">
+        <v>12</v>
+      </c>
+      <c r="E82" t="s" s="403">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s" s="404">
         <v>15</v>
       </c>
-      <c r="I81" t="s" s="405">
-        <v>14</v>
-      </c>
-      <c r="J81"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B82" t="s" s="407">
-        <v>12</v>
-      </c>
-      <c r="E82" t="s" s="408">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s" s="409">
-        <v>12</v>
-      </c>
-      <c r="I82" t="s" s="410">
-        <v>14</v>
-      </c>
-      <c r="J82" t="s">
+      <c r="I82" t="s" s="405">
+        <v>14</v>
+      </c>
+      <c r="J82"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
         <v>110</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="1">
+      <c r="B83" t="s" s="407">
+        <v>12</v>
+      </c>
+      <c r="E83" t="s" s="408">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s" s="409">
+        <v>12</v>
+      </c>
+      <c r="I83" t="s" s="410">
+        <v>14</v>
+      </c>
+      <c r="J83" t="s">
         <v>111</v>
       </c>
-      <c r="B83" t="s" s="412">
-        <v>12</v>
-      </c>
-      <c r="E83" t="s" s="413">
-        <v>14</v>
-      </c>
-      <c r="I83" t="s" s="414">
-        <v>14</v>
-      </c>
-      <c r="J83"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="1">
         <v>112</v>
       </c>
-      <c r="B84" t="s" s="416">
-        <v>12</v>
-      </c>
-      <c r="E84" t="s" s="417">
-        <v>14</v>
-      </c>
-      <c r="I84" t="s" s="418">
+      <c r="B84" t="s" s="412">
+        <v>12</v>
+      </c>
+      <c r="E84" t="s" s="413">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s" s="414">
         <v>14</v>
       </c>
       <c r="J84"/>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="2">
+      <c r="A85" t="s" s="1">
         <v>113</v>
       </c>
-      <c r="B85" t="s" s="420">
-        <v>12</v>
-      </c>
-      <c r="D85" t="s" s="421">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s" s="422">
-        <v>12</v>
-      </c>
-      <c r="I85" t="s" s="423">
-        <v>16</v>
-      </c>
-      <c r="J85" t="s">
+      <c r="B85" t="s" s="416">
+        <v>12</v>
+      </c>
+      <c r="E85" t="s" s="417">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s" s="418">
+        <v>14</v>
+      </c>
+      <c r="J85"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="1">
+      <c r="B86" t="s" s="420">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s" s="421">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s" s="422">
+        <v>12</v>
+      </c>
+      <c r="I86" t="s" s="423">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
         <v>115</v>
       </c>
-      <c r="B86" t="s" s="425">
-        <v>12</v>
-      </c>
-      <c r="C86" t="s" s="426">
-        <v>16</v>
-      </c>
-      <c r="D86" t="s" s="427">
-        <v>14</v>
-      </c>
-      <c r="H86" t="s" s="428">
-        <v>16</v>
-      </c>
-      <c r="I86" t="s" s="429">
-        <v>14</v>
-      </c>
-      <c r="J86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="1">
         <v>116</v>
       </c>
-      <c r="B87" t="s" s="431">
-        <v>13</v>
-      </c>
-      <c r="D87" t="s" s="432">
-        <v>14</v>
-      </c>
-      <c r="H87" t="s" s="433">
-        <v>15</v>
-      </c>
-      <c r="I87" t="s" s="434">
+      <c r="B87" t="s" s="425">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s" s="426">
+        <v>16</v>
+      </c>
+      <c r="D87" t="s" s="427">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s" s="428">
+        <v>16</v>
+      </c>
+      <c r="I87" t="s" s="429">
         <v>14</v>
       </c>
       <c r="J87"/>
@@ -3958,17 +3931,14 @@
       <c r="A88" t="s" s="1">
         <v>117</v>
       </c>
-      <c r="B88" t="s" s="436">
-        <v>12</v>
-      </c>
-      <c r="G88" t="s" s="437">
-        <v>14</v>
-      </c>
-      <c r="H88" t="s" s="438">
-        <v>15</v>
-      </c>
-      <c r="I88" t="s" s="439">
-        <v>16</v>
+      <c r="B88" t="s" s="431">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s" s="432">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s" s="433">
+        <v>14</v>
       </c>
       <c r="J88"/>
     </row>
@@ -3976,17 +3946,17 @@
       <c r="A89" t="s" s="1">
         <v>118</v>
       </c>
-      <c r="B89" t="s" s="441">
-        <v>16</v>
-      </c>
-      <c r="D89" t="s" s="442">
-        <v>14</v>
-      </c>
-      <c r="H89" t="s" s="443">
-        <v>16</v>
-      </c>
-      <c r="I89" t="s" s="444">
-        <v>14</v>
+      <c r="B89" t="s" s="435">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s" s="436">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s" s="437">
+        <v>15</v>
+      </c>
+      <c r="I89" t="s" s="438">
+        <v>16</v>
       </c>
       <c r="J89"/>
     </row>
@@ -3994,70 +3964,73 @@
       <c r="A90" t="s" s="1">
         <v>119</v>
       </c>
-      <c r="B90" t="s" s="446">
-        <v>16</v>
-      </c>
-      <c r="E90" t="s" s="447">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s" s="448">
-        <v>16</v>
-      </c>
-      <c r="I90" t="s" s="449">
+      <c r="B90" t="s" s="440">
+        <v>16</v>
+      </c>
+      <c r="D90" t="s" s="441">
+        <v>14</v>
+      </c>
+      <c r="H90" t="s" s="442">
+        <v>16</v>
+      </c>
+      <c r="I90" t="s" s="443">
         <v>14</v>
       </c>
       <c r="J90"/>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="1">
         <v>120</v>
       </c>
-      <c r="B91" t="s" s="451">
-        <v>16</v>
-      </c>
-      <c r="E91" t="s" s="452">
-        <v>14</v>
-      </c>
-      <c r="F91" t="s" s="453">
-        <v>16</v>
-      </c>
-      <c r="H91" t="s" s="454">
-        <v>12</v>
-      </c>
-      <c r="I91" t="s" s="455">
+      <c r="B91" t="s" s="445">
+        <v>16</v>
+      </c>
+      <c r="E91" t="s" s="446">
+        <v>14</v>
+      </c>
+      <c r="G91" t="s" s="447">
+        <v>16</v>
+      </c>
+      <c r="I91" t="s" s="448">
         <v>14</v>
       </c>
       <c r="J91"/>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="3">
+      <c r="A92" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="B92" t="s" s="457">
-        <v>12</v>
-      </c>
-      <c r="F92" t="s" s="458">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s" s="459">
+      <c r="B92" t="s" s="450">
+        <v>16</v>
+      </c>
+      <c r="E92" t="s" s="451">
+        <v>14</v>
+      </c>
+      <c r="F92" t="s" s="452">
+        <v>16</v>
+      </c>
+      <c r="H92" t="s" s="453">
+        <v>12</v>
+      </c>
+      <c r="I92" t="s" s="454">
+        <v>14</v>
+      </c>
+      <c r="J92"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="3">
+        <v>122</v>
+      </c>
+      <c r="B93" t="s" s="456">
+        <v>12</v>
+      </c>
+      <c r="F93" t="s" s="457">
+        <v>14</v>
+      </c>
+      <c r="G93" t="s" s="458">
         <v>13</v>
       </c>
-      <c r="I92" t="s" s="460">
-        <v>14</v>
-      </c>
-      <c r="J92"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="1">
-        <v>122</v>
-      </c>
-      <c r="B93" t="s" s="462">
-        <v>16</v>
-      </c>
-      <c r="C93" t="s" s="463">
-        <v>14</v>
-      </c>
-      <c r="I93" t="s" s="464">
+      <c r="I93" t="s" s="459">
         <v>14</v>
       </c>
       <c r="J93"/>
@@ -4066,34 +4039,28 @@
       <c r="A94" t="s" s="1">
         <v>123</v>
       </c>
-      <c r="B94" t="s" s="466">
-        <v>16</v>
-      </c>
-      <c r="F94" t="s" s="467">
-        <v>14</v>
-      </c>
-      <c r="H94" t="s" s="468">
-        <v>16</v>
-      </c>
-      <c r="I94" t="s" s="469">
+      <c r="B94" t="s" s="461">
+        <v>16</v>
+      </c>
+      <c r="C94" t="s" s="462">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s" s="463">
         <v>14</v>
       </c>
       <c r="J94"/>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="3">
+      <c r="A95" t="s" s="1">
         <v>124</v>
       </c>
-      <c r="B95" t="s" s="471">
-        <v>12</v>
-      </c>
-      <c r="E95" t="s" s="472">
-        <v>14</v>
-      </c>
-      <c r="H95" t="s" s="473">
-        <v>15</v>
-      </c>
-      <c r="I95" t="s" s="474">
+      <c r="B95" t="s" s="465">
+        <v>16</v>
+      </c>
+      <c r="F95" t="s" s="466">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s" s="467">
         <v>14</v>
       </c>
       <c r="J95"/>
@@ -4102,71 +4069,71 @@
       <c r="A96" t="s" s="3">
         <v>125</v>
       </c>
-      <c r="B96" t="s" s="476">
-        <v>12</v>
-      </c>
-      <c r="E96" t="s" s="477">
+      <c r="B96" t="s" s="469">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s" s="470">
+        <v>14</v>
+      </c>
+      <c r="H96" t="s" s="471">
+        <v>15</v>
+      </c>
+      <c r="I96" t="s" s="472">
+        <v>14</v>
+      </c>
+      <c r="J96"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="3">
+        <v>126</v>
+      </c>
+      <c r="B97" t="s" s="474">
+        <v>12</v>
+      </c>
+      <c r="E97" t="s" s="475">
         <v>13</v>
       </c>
-      <c r="G96" t="s" s="478">
-        <v>14</v>
-      </c>
-      <c r="H96" t="s" s="479">
+      <c r="G97" t="s" s="476">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s" s="477">
         <v>15</v>
       </c>
-      <c r="I96" t="s" s="480">
-        <v>14</v>
-      </c>
-      <c r="J96"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="1">
-        <v>126</v>
-      </c>
-      <c r="B97" t="s" s="482">
-        <v>12</v>
-      </c>
-      <c r="C97" t="s" s="483">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s" s="484">
+      <c r="I97" t="s" s="478">
+        <v>14</v>
+      </c>
+      <c r="J97"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="1">
+        <v>127</v>
+      </c>
+      <c r="B98" t="s" s="480">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s" s="481">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s" s="482">
         <v>13</v>
       </c>
-      <c r="I97" t="s" s="485">
-        <v>14</v>
-      </c>
-      <c r="J97"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B98" t="s" s="487">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s" s="488">
-        <v>12</v>
-      </c>
-      <c r="I98" t="s" s="489">
-        <v>16</v>
+      <c r="I98" t="s" s="483">
+        <v>14</v>
       </c>
       <c r="J98"/>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="1">
+      <c r="A99" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="B99" t="s" s="491">
-        <v>12</v>
-      </c>
-      <c r="E99" t="s" s="492">
-        <v>14</v>
-      </c>
-      <c r="H99" t="s" s="493">
-        <v>16</v>
-      </c>
-      <c r="I99" t="s" s="494">
-        <v>14</v>
+      <c r="B99" t="s" s="485">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s" s="486">
+        <v>12</v>
+      </c>
+      <c r="I99" t="s" s="487">
+        <v>16</v>
       </c>
       <c r="J99"/>
     </row>
@@ -4174,73 +4141,76 @@
       <c r="A100" t="s" s="1">
         <v>129</v>
       </c>
-      <c r="B100" t="s" s="496">
-        <v>14</v>
-      </c>
-      <c r="I100" t="s" s="497">
+      <c r="B100" t="s" s="489">
+        <v>12</v>
+      </c>
+      <c r="E100" t="s" s="490">
+        <v>14</v>
+      </c>
+      <c r="H100" t="s" s="491">
+        <v>16</v>
+      </c>
+      <c r="I100" t="s" s="492">
         <v>14</v>
       </c>
       <c r="J100"/>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="3">
+      <c r="A101" t="s" s="1">
         <v>130</v>
       </c>
-      <c r="B101" t="s" s="499">
-        <v>12</v>
-      </c>
-      <c r="E101" t="s" s="500">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s" s="501">
-        <v>16</v>
-      </c>
-      <c r="I101" t="s" s="502">
+      <c r="B101" t="s" s="494">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s" s="495">
         <v>14</v>
       </c>
       <c r="J101"/>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="1">
+      <c r="A102" t="s" s="3">
         <v>131</v>
       </c>
-      <c r="B102" t="s" s="504">
-        <v>16</v>
-      </c>
-      <c r="E102" t="s" s="505">
-        <v>14</v>
-      </c>
-      <c r="I102" t="s" s="506">
+      <c r="B102" t="s" s="497">
+        <v>12</v>
+      </c>
+      <c r="E102" t="s" s="498">
+        <v>14</v>
+      </c>
+      <c r="G102" t="s" s="499">
+        <v>16</v>
+      </c>
+      <c r="I102" t="s" s="500">
         <v>14</v>
       </c>
       <c r="J102"/>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="3">
+      <c r="A103" t="s" s="1">
         <v>132</v>
       </c>
-      <c r="B103" t="s" s="508">
-        <v>14</v>
-      </c>
-      <c r="H103" t="s" s="509">
+      <c r="B103" t="s" s="502">
+        <v>16</v>
+      </c>
+      <c r="E103" t="s" s="503">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s" s="504">
+        <v>14</v>
+      </c>
+      <c r="J103"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="3">
+        <v>133</v>
+      </c>
+      <c r="B104" t="s" s="506">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s" s="507">
         <v>15</v>
       </c>
-      <c r="I103" t="s" s="510">
-        <v>14</v>
-      </c>
-      <c r="J103"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="1">
-        <v>133</v>
-      </c>
-      <c r="B104" t="s" s="512">
-        <v>14</v>
-      </c>
-      <c r="H104" t="s" s="513">
-        <v>23</v>
-      </c>
-      <c r="I104" t="s" s="514">
+      <c r="I104" t="s" s="508">
         <v>14</v>
       </c>
       <c r="J104"/>
@@ -4249,96 +4219,93 @@
       <c r="A105" t="s" s="1">
         <v>134</v>
       </c>
-      <c r="B105" t="s" s="516">
-        <v>16</v>
-      </c>
-      <c r="F105" t="s" s="517">
-        <v>14</v>
-      </c>
-      <c r="I105" t="s" s="518">
+      <c r="B105" t="s" s="510">
+        <v>14</v>
+      </c>
+      <c r="H105" t="s" s="511">
+        <v>23</v>
+      </c>
+      <c r="I105" t="s" s="512">
         <v>14</v>
       </c>
       <c r="J105"/>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="3">
+      <c r="A106" t="s" s="1">
         <v>135</v>
       </c>
-      <c r="B106" t="s" s="520">
+      <c r="B106" t="s" s="514">
+        <v>16</v>
+      </c>
+      <c r="F106" t="s" s="515">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s" s="516">
+        <v>14</v>
+      </c>
+      <c r="J106"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="3">
+        <v>136</v>
+      </c>
+      <c r="B107" t="s" s="518">
         <v>13</v>
       </c>
-      <c r="D106" t="s" s="521">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s" s="522">
-        <v>16</v>
-      </c>
-      <c r="I106" t="s" s="523">
-        <v>14</v>
-      </c>
-      <c r="J106"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="1">
-        <v>136</v>
-      </c>
-      <c r="B107" t="s" s="525">
+      <c r="D107" t="s" s="519">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s" s="520">
+        <v>16</v>
+      </c>
+      <c r="I107" t="s" s="521">
+        <v>14</v>
+      </c>
+      <c r="J107"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="1">
+        <v>137</v>
+      </c>
+      <c r="B108" t="s" s="523">
         <v>13</v>
       </c>
-      <c r="C107" t="s" s="526">
-        <v>14</v>
-      </c>
-      <c r="H107" t="s" s="527">
+      <c r="C108" t="s" s="524">
+        <v>14</v>
+      </c>
+      <c r="H108" t="s" s="525">
         <v>15</v>
       </c>
-      <c r="I107" t="s" s="528">
-        <v>14</v>
-      </c>
-      <c r="J107"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="3">
-        <v>137</v>
-      </c>
-      <c r="B108" t="s" s="530">
-        <v>14</v>
-      </c>
-      <c r="F108" t="s" s="531">
+      <c r="I108" t="s" s="526">
+        <v>14</v>
+      </c>
+      <c r="J108"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="3">
+        <v>138</v>
+      </c>
+      <c r="B109" t="s" s="528">
+        <v>14</v>
+      </c>
+      <c r="F109" t="s" s="529">
         <v>27</v>
       </c>
-      <c r="I108" t="s" s="532">
-        <v>14</v>
-      </c>
-      <c r="J108" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="1">
+      <c r="I109" t="s" s="530">
+        <v>14</v>
+      </c>
+      <c r="J109" t="s">
         <v>139</v>
       </c>
-      <c r="B109" t="s" s="534">
-        <v>14</v>
-      </c>
-      <c r="H109" t="s" s="535">
-        <v>23</v>
-      </c>
-      <c r="I109" t="s" s="536">
-        <v>14</v>
-      </c>
-      <c r="J109"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="1">
         <v>140</v>
       </c>
-      <c r="B110" t="s" s="538">
-        <v>12</v>
-      </c>
-      <c r="E110" t="s" s="539">
-        <v>14</v>
-      </c>
-      <c r="I110" t="s" s="540">
+      <c r="B110" t="s" s="532">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s" s="533">
         <v>14</v>
       </c>
       <c r="J110"/>
@@ -4347,16 +4314,13 @@
       <c r="A111" t="s" s="1">
         <v>141</v>
       </c>
-      <c r="B111" t="s" s="542">
-        <v>12</v>
-      </c>
-      <c r="G111" t="s" s="543">
-        <v>14</v>
-      </c>
-      <c r="H111" t="s" s="544">
-        <v>15</v>
-      </c>
-      <c r="I111" t="s" s="545">
+      <c r="B111" t="s" s="535">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s" s="536">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s" s="537">
         <v>14</v>
       </c>
       <c r="J111"/>
@@ -4365,13 +4329,16 @@
       <c r="A112" t="s" s="1">
         <v>142</v>
       </c>
-      <c r="B112" t="s" s="547">
-        <v>14</v>
-      </c>
-      <c r="H112" t="s" s="548">
+      <c r="B112" t="s" s="539">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s" s="540">
+        <v>14</v>
+      </c>
+      <c r="H112" t="s" s="541">
         <v>15</v>
       </c>
-      <c r="I112" t="s" s="549">
+      <c r="I112" t="s" s="542">
         <v>14</v>
       </c>
       <c r="J112"/>
@@ -4380,10 +4347,10 @@
       <c r="A113" t="s" s="1">
         <v>143</v>
       </c>
-      <c r="B113" t="s" s="551">
-        <v>14</v>
-      </c>
-      <c r="I113" t="s" s="552">
+      <c r="B113" t="s" s="544">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s" s="545">
         <v>14</v>
       </c>
       <c r="J113"/>
@@ -4392,31 +4359,25 @@
       <c r="A114" t="s" s="1">
         <v>144</v>
       </c>
-      <c r="B114" t="s" s="554">
-        <v>12</v>
-      </c>
-      <c r="E114" t="s" s="555">
-        <v>14</v>
-      </c>
-      <c r="I114" t="s" s="556">
+      <c r="B114" t="s" s="547">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s" s="548">
         <v>14</v>
       </c>
       <c r="J114"/>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="1">
         <v>145</v>
       </c>
-      <c r="B115" t="s" s="558">
-        <v>12</v>
-      </c>
-      <c r="F115" t="s" s="559">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s" s="560">
-        <v>12</v>
-      </c>
-      <c r="I115" t="s" s="561">
+      <c r="B115" t="s" s="550">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s" s="551">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s" s="552">
         <v>14</v>
       </c>
       <c r="J115"/>
@@ -4425,59 +4386,74 @@
       <c r="A116" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="B116" t="s" s="563">
-        <v>12</v>
-      </c>
-      <c r="E116" t="s" s="564">
+      <c r="B116" t="s" s="554">
+        <v>12</v>
+      </c>
+      <c r="F116" t="s" s="555">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s" s="556">
+        <v>12</v>
+      </c>
+      <c r="I116" t="s" s="557">
+        <v>14</v>
+      </c>
+      <c r="J116"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B117" t="s" s="559">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s" s="560">
         <v>50</v>
       </c>
-      <c r="F116" t="s" s="565">
-        <v>12</v>
-      </c>
-      <c r="I116" t="s" s="566">
-        <v>14</v>
-      </c>
-      <c r="J116"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="3">
-        <v>147</v>
-      </c>
-      <c r="B117" t="s" s="568">
-        <v>12</v>
-      </c>
-      <c r="F117" t="s" s="569">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s" s="570">
+      <c r="F117" t="s" s="561">
+        <v>12</v>
+      </c>
+      <c r="I117" t="s" s="562">
+        <v>14</v>
+      </c>
+      <c r="J117"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="3">
+        <v>148</v>
+      </c>
+      <c r="B118" t="s" s="564">
+        <v>12</v>
+      </c>
+      <c r="F118" t="s" s="565">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s" s="566">
         <v>13</v>
       </c>
-      <c r="I117" t="s" s="571">
-        <v>14</v>
-      </c>
-      <c r="J117"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="1">
-        <v>148</v>
-      </c>
-      <c r="B118" t="s" s="573">
-        <v>12</v>
-      </c>
-      <c r="F118" t="s" s="574">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s" s="575">
+      <c r="I118" t="s" s="567">
+        <v>14</v>
+      </c>
+      <c r="J118"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="1">
+        <v>149</v>
+      </c>
+      <c r="B119" t="s" s="569">
+        <v>12</v>
+      </c>
+      <c r="F119" t="s" s="570">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s" s="571">
         <v>23</v>
       </c>
-      <c r="H118" t="s" s="576">
-        <v>15</v>
-      </c>
-      <c r="I118" t="s" s="577">
-        <v>14</v>
-      </c>
-      <c r="J118" t="s">
-        <v>149</v>
+      <c r="I119" t="s" s="572">
+        <v>14</v>
+      </c>
+      <c r="J119" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4541,154 +4517,157 @@
     <mergeCell ref="F31:H31"/>
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="D36:F36"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="C53:F53"/>
     <mergeCell ref="G53:H53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="B55:E55"/>
     <mergeCell ref="F55:H55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B61:F61"/>
     <mergeCell ref="G61:H61"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="D62:F62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="B66:F66"/>
     <mergeCell ref="B67:D67"/>
-    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="E67:H67"/>
     <mergeCell ref="B68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="B75:E75"/>
     <mergeCell ref="F75:H75"/>
-    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="F76:H76"/>
     <mergeCell ref="B77:E77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="G78:H78"/>
     <mergeCell ref="B79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="G81:H81"/>
     <mergeCell ref="B82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="E82:G82"/>
     <mergeCell ref="B83:D83"/>
-    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
     <mergeCell ref="B84:D84"/>
     <mergeCell ref="E84:H84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="G86:H86"/>
     <mergeCell ref="D87:G87"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:G90"/>
     <mergeCell ref="B91:D91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="F95:H95"/>
     <mergeCell ref="B96:D96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="C97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="C98:F98"/>
     <mergeCell ref="G98:H98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="B100:H100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="B101:H101"/>
     <mergeCell ref="B102:D102"/>
-    <mergeCell ref="E102:H102"/>
-    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="E103:H103"/>
     <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="F105:H105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="F108:H108"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="E110:H110"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="E111:H111"/>
+    <mergeCell ref="B112:F112"/>
     <mergeCell ref="B113:H113"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="E114:H114"/>
-    <mergeCell ref="B115:E115"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="B114:H114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:H115"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="F117:H117"/>
     <mergeCell ref="B118:E118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="G119:H119"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
